--- a/inst/extdata/LSFIM_KY_v7.xlsx
+++ b/inst/extdata/LSFIM_KY_v7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malcalakovalski/Documents/Projects/Fiscal-Impact-Measure/data/add-ons/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD30774A-7741-964D-941A-3A54028CB0E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2DBA6AA-B098-D842-8563-22CFB4EF387C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19380" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
+    <workbookView xWindow="2000" yWindow="500" windowWidth="33600" windowHeight="19380" activeTab="2" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -4214,11 +4214,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412AAB1A-8B83-4A8D-A21D-8EE870D0279B}">
   <dimension ref="A1:AS118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="O59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F53" sqref="F53"/>
+      <selection pane="bottomRight" activeCell="R75" sqref="R75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5626,35 +5626,35 @@
       <c r="O20" s="318"/>
       <c r="P20" s="332"/>
       <c r="Q20" s="168">
-        <f t="shared" ref="Q20" si="7">N20*(1+Q22)</f>
+        <f>N20*(1+Q22)</f>
         <v>215.35762499999996</v>
       </c>
       <c r="R20" s="168">
-        <f t="shared" ref="R20" si="8">Q20*(1+R22)</f>
+        <f t="shared" ref="R20" si="7">Q20*(1+R22)</f>
         <v>218.58798937499992</v>
       </c>
       <c r="S20" s="168">
-        <f t="shared" ref="S20" si="9">R20*(1+S22)</f>
+        <f t="shared" ref="S20" si="8">R20*(1+S22)</f>
         <v>221.8668092156249</v>
       </c>
       <c r="T20" s="168">
-        <f t="shared" ref="T20" si="10">S20*(1+T22)</f>
+        <f t="shared" ref="T20" si="9">S20*(1+T22)</f>
         <v>235.1788177685624</v>
       </c>
       <c r="U20" s="168">
-        <f t="shared" ref="U20" si="11">T20*(1+U22)</f>
+        <f t="shared" ref="U20" si="10">T20*(1+U22)</f>
         <v>249.28954683467614</v>
       </c>
       <c r="V20" s="168">
-        <f t="shared" ref="V20" si="12">U20*(1+V22)</f>
+        <f t="shared" ref="V20" si="11">U20*(1+V22)</f>
         <v>264.2469196447567</v>
       </c>
       <c r="W20" s="168">
-        <f t="shared" ref="W20:X20" si="13">V20*(1+W22)</f>
+        <f t="shared" ref="W20:X20" si="12">V20*(1+W22)</f>
         <v>280.10173482344214</v>
       </c>
       <c r="X20" s="168">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>296.90783891284866</v>
       </c>
       <c r="Y20" s="168"/>
@@ -5914,68 +5914,68 @@
         <v>1773.6</v>
       </c>
       <c r="G25" s="203">
-        <f t="shared" ref="G25:W25" si="14">SUM(G26:G28)</f>
+        <f t="shared" ref="G25:W25" si="13">SUM(G26:G28)</f>
         <v>1798.8</v>
       </c>
       <c r="H25" s="203">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1853.9</v>
       </c>
       <c r="I25" s="203">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1832.2</v>
       </c>
       <c r="J25" s="203">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1832.4</v>
       </c>
       <c r="K25" s="203">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1862.4</v>
       </c>
       <c r="L25" s="203">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1779.8019999999999</v>
       </c>
       <c r="M25" s="301">
         <v>1871.3489999999999</v>
       </c>
       <c r="N25" s="344">
-        <f t="shared" ref="N25" si="15">SUM(N26:N28)</f>
+        <f t="shared" ref="N25" si="14">SUM(N26:N28)</f>
         <v>1871.3489999999999</v>
       </c>
       <c r="O25" s="319"/>
       <c r="P25" s="332"/>
       <c r="Q25" s="102">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1902.3851612709568</v>
       </c>
       <c r="R25" s="102">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1932.635828171901</v>
       </c>
       <c r="S25" s="102">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1964.9689685189253</v>
       </c>
       <c r="T25" s="102">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1986.6248656270586</v>
       </c>
       <c r="U25" s="102">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>2006.4448979866747</v>
       </c>
       <c r="V25" s="102">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>2026.0639899260557</v>
       </c>
       <c r="W25" s="102">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>2046.5781801010316</v>
       </c>
       <c r="X25" s="102">
-        <f t="shared" ref="X25" si="16">SUM(X26:X28)</f>
+        <f t="shared" ref="X25" si="15">SUM(X26:X28)</f>
         <v>2067.3937809063618</v>
       </c>
     </row>
@@ -6022,31 +6022,31 @@
         <v>515.00191717304835</v>
       </c>
       <c r="R26" s="102">
-        <f t="shared" ref="R26:X26" si="17">Q26*(1+R$6)</f>
+        <f t="shared" ref="R26:X26" si="16">Q26*(1+R$6)</f>
         <v>523.19119017985702</v>
       </c>
       <c r="S26" s="102">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>531.94421748785908</v>
       </c>
       <c r="T26" s="102">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>537.80676769895297</v>
       </c>
       <c r="U26" s="102">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>543.17232398662645</v>
       </c>
       <c r="V26" s="102">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>548.48348292944809</v>
       </c>
       <c r="W26" s="102">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>554.0369573175193</v>
       </c>
       <c r="X26" s="102">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>559.67202772286873</v>
       </c>
     </row>
@@ -6093,31 +6093,31 @@
         <v>1366.7984161846889</v>
       </c>
       <c r="R27" s="102">
-        <f t="shared" ref="R27:X27" si="18">Q27*(1+R$6)</f>
+        <f t="shared" ref="R27:X27" si="17">Q27*(1+R$6)</f>
         <v>1388.5324816360396</v>
       </c>
       <c r="S27" s="102">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>1411.7627327525197</v>
       </c>
       <c r="T27" s="102">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>1427.3217512262975</v>
       </c>
       <c r="U27" s="102">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>1441.5617639163429</v>
       </c>
       <c r="V27" s="102">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>1455.6574078141393</v>
       </c>
       <c r="W27" s="102">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>1470.3961490592278</v>
       </c>
       <c r="X27" s="102">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>1485.3514434926908</v>
       </c>
     </row>
@@ -6164,31 +6164,31 @@
         <v>20.584827913219609</v>
       </c>
       <c r="R28" s="102">
-        <f t="shared" ref="R28:X28" si="19">Q28*(1+R$6)</f>
+        <f t="shared" ref="R28:X28" si="18">Q28*(1+R$6)</f>
         <v>20.912156356004587</v>
       </c>
       <c r="S28" s="102">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>21.262018278546503</v>
       </c>
       <c r="T28" s="102">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>21.496346701808328</v>
       </c>
       <c r="U28" s="102">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>21.710810083705489</v>
       </c>
       <c r="V28" s="102">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>21.923099182468214</v>
       </c>
       <c r="W28" s="102">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>22.145073724284352</v>
       </c>
       <c r="X28" s="102">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>22.370309690802159</v>
       </c>
     </row>
@@ -6235,31 +6235,31 @@
         <v>93.035212328774406</v>
       </c>
       <c r="R29" s="102">
-        <f t="shared" ref="R29:X29" si="20">Q29*(1+R6)</f>
+        <f t="shared" ref="R29:X29" si="19">Q29*(1+R6)</f>
         <v>94.514606341885894</v>
       </c>
       <c r="S29" s="102">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>96.095842696479707</v>
       </c>
       <c r="T29" s="102">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>97.154913712508474</v>
       </c>
       <c r="U29" s="102">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>98.124202664335741</v>
       </c>
       <c r="V29" s="102">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>99.083664723563857</v>
       </c>
       <c r="W29" s="102">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>100.08690112255188</v>
       </c>
       <c r="X29" s="102">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>101.10487786043869</v>
       </c>
     </row>
@@ -6268,38 +6268,38 @@
         <v>265</v>
       </c>
       <c r="F30" s="209">
-        <f t="shared" ref="F30:L30" si="21">F29/F20</f>
+        <f t="shared" ref="F30:L30" si="20">F29/F20</f>
         <v>0.27055815935236471</v>
       </c>
       <c r="G30" s="209">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0.32039289055191766</v>
       </c>
       <c r="H30" s="209">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0.30642283675289922</v>
       </c>
       <c r="I30" s="209">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0.34623015873015872</v>
       </c>
       <c r="J30" s="209">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0.30909882455376581</v>
       </c>
       <c r="K30" s="209">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0.3473684210526316</v>
       </c>
       <c r="L30" s="209">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0.31603498542274056</v>
       </c>
       <c r="M30" s="209">
         <v>0.43574879227053143</v>
       </c>
       <c r="N30" s="337">
-        <f t="shared" ref="N30" si="22">N29/N20</f>
+        <f t="shared" ref="N30" si="21">N29/N20</f>
         <v>0.43132981783498947</v>
       </c>
       <c r="O30" s="320"/>
@@ -6435,31 +6435,31 @@
         <v>-69925.320501171052</v>
       </c>
       <c r="Q33" s="133">
-        <f t="shared" ref="Q33:W33" si="23">Q34+Q39+Q49</f>
+        <f t="shared" ref="Q33:W33" si="22">Q34+Q39+Q49</f>
         <v>3270456.7169724014</v>
       </c>
       <c r="R33" s="133">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>2708796.7165770018</v>
       </c>
       <c r="S33" s="133">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>2611509.6718853824</v>
       </c>
       <c r="T33" s="133">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>2678465.9441347551</v>
       </c>
       <c r="U33" s="133">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>2735176.6542439447</v>
       </c>
       <c r="V33" s="133">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>2793300.2519227522</v>
       </c>
       <c r="W33" s="133">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>2852876.3150512893</v>
       </c>
       <c r="X33" s="87"/>
@@ -6873,35 +6873,35 @@
         <v>6531</v>
       </c>
       <c r="Q39" s="87">
-        <f t="shared" ref="Q39:X39" si="24">Q41+Q45</f>
+        <f t="shared" ref="Q39:X39" si="23">Q41+Q45</f>
         <v>724000</v>
       </c>
       <c r="R39" s="87">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>152000</v>
       </c>
       <c r="S39" s="87">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>44000</v>
       </c>
       <c r="T39" s="87">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>44000</v>
       </c>
       <c r="U39" s="87">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>44000</v>
       </c>
       <c r="V39" s="87">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>44000</v>
       </c>
       <c r="W39" s="87">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>44000</v>
       </c>
       <c r="X39" s="87">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>44000</v>
       </c>
       <c r="Y39" s="44"/>
@@ -6919,11 +6919,11 @@
         <v>509.16674999999998</v>
       </c>
       <c r="AG39" s="45">
-        <f t="shared" ref="AG39:AG49" si="25">AVERAGE(N39:S39)/1000</f>
+        <f>AVERAGE(N39:S39)/1000</f>
         <v>268.26666666666671</v>
       </c>
       <c r="AH39" s="45">
-        <f t="shared" ref="AH39:AH49" si="26">AVERAGE(T39:W39)/1000</f>
+        <f t="shared" ref="AH39:AH49" si="24">AVERAGE(T39:W39)/1000</f>
         <v>44</v>
       </c>
       <c r="AJ39">
@@ -7034,11 +7034,11 @@
         <v>108000</v>
       </c>
       <c r="S41" s="87">
-        <f t="shared" ref="S41" si="27">S42+S43+S44</f>
+        <f t="shared" ref="S41" si="25">S42+S43+S44</f>
         <v>0</v>
       </c>
       <c r="T41" s="87">
-        <f t="shared" ref="T41" si="28">T42+T43</f>
+        <f t="shared" ref="T41" si="26">T42+T43</f>
         <v>0</v>
       </c>
       <c r="U41" s="87"/>
@@ -7135,11 +7135,11 @@
         <v>355.98333333333329</v>
       </c>
       <c r="AG42" s="45">
-        <f t="shared" si="25"/>
+        <f>AVERAGE(N42:S42)/1000</f>
         <v>111.33333333333333</v>
       </c>
       <c r="AH42" s="45">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AI42" s="3"/>
@@ -7317,11 +7317,11 @@
         <v>108.76666666666668</v>
       </c>
       <c r="AG45" s="45">
-        <f t="shared" si="25"/>
+        <f>AVERAGE(N45:S45)/1000</f>
         <v>53.666666666666664</v>
       </c>
       <c r="AH45" s="45">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>44</v>
       </c>
       <c r="AI45" s="3"/>
@@ -7364,19 +7364,19 @@
         <v>6504.8416534181233</v>
       </c>
       <c r="Q46" s="87">
-        <f t="shared" ref="Q46:T46" si="29">SUM(Q47:Q48)</f>
+        <f t="shared" ref="Q46:T46" si="27">SUM(Q47:Q48)</f>
         <v>43377.595548489669</v>
       </c>
       <c r="R46" s="87">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>43000</v>
       </c>
       <c r="S46" s="87">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>43000</v>
       </c>
       <c r="T46" s="87">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>15000</v>
       </c>
       <c r="U46" s="87"/>
@@ -7395,11 +7395,11 @@
         <v>66.325000000000003</v>
       </c>
       <c r="AG46" s="45">
-        <f t="shared" si="25"/>
+        <f>AVERAGE(N46:S46)/1000</f>
         <v>38.831213142554311</v>
       </c>
       <c r="AH46" s="45">
-        <f t="shared" ref="AH46" si="30">AVERAGE(T46:W46)/1000</f>
+        <f t="shared" ref="AH46" si="28">AVERAGE(T46:W46)/1000</f>
         <v>15</v>
       </c>
       <c r="AI46" s="3"/>
@@ -7597,11 +7597,11 @@
         <v>1663323.8025</v>
       </c>
       <c r="R49" s="88">
-        <f t="shared" ref="R49:S49" si="31">Q49*(1+R51)</f>
+        <f t="shared" ref="R49:S49" si="29">Q49*(1+R51)</f>
         <v>1650848.87398125</v>
       </c>
       <c r="S49" s="88">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>1638467.5074263907</v>
       </c>
       <c r="T49" s="88">
@@ -7609,15 +7609,15 @@
         <v>1663044.5200377863</v>
       </c>
       <c r="U49" s="88">
-        <f t="shared" ref="U49:W49" si="32">T49*(1+U51)</f>
+        <f t="shared" ref="U49:W49" si="30">T49*(1+U51)</f>
         <v>1687990.187838353</v>
       </c>
       <c r="V49" s="88">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>1713310.0406559282</v>
       </c>
       <c r="W49" s="88">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>1739009.691265767</v>
       </c>
       <c r="X49" s="88">
@@ -7639,11 +7639,11 @@
         <v>1603.732</v>
       </c>
       <c r="AG49" s="45">
-        <f t="shared" si="25"/>
+        <f>AVERAGE(N49:S49)/1000</f>
         <v>1377.8658614846067</v>
       </c>
       <c r="AH49" s="45">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>1700.8386099494589</v>
       </c>
       <c r="AI49" s="3"/>
@@ -7682,30 +7682,30 @@
         <v>4.3899160317375507E-2</v>
       </c>
       <c r="H50" s="227">
-        <f t="shared" ref="H50:L50" si="33">H49/G49-1</f>
+        <f t="shared" ref="H50:L50" si="31">H49/G49-1</f>
         <v>3.4867401440725754E-3</v>
       </c>
       <c r="I50" s="227">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>3.5163841628156334E-3</v>
       </c>
       <c r="J50" s="227">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>5.2735975988749129E-3</v>
       </c>
       <c r="K50" s="227">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>3.4509222105193249E-2</v>
       </c>
       <c r="L50" s="227">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>4.7166587697893059E-2</v>
       </c>
       <c r="M50" s="227">
         <v>1.2783825552366457E-2</v>
       </c>
       <c r="N50" s="227">
-        <f t="shared" ref="N50" si="34">N49/M49-1</f>
+        <f t="shared" ref="N50" si="32">N49/M49-1</f>
         <v>3.6483389338011207E-3</v>
       </c>
       <c r="O50" s="324"/>
@@ -7884,51 +7884,51 @@
       </c>
       <c r="P53" s="332"/>
       <c r="Q53" s="144">
-        <f t="shared" ref="Q53:AB53" si="35">Q54+AVERAGE($H$53:$K$53)</f>
+        <f t="shared" ref="Q53:AB53" si="33">Q54+AVERAGE($H$53:$K$53)</f>
         <v>794083.58333333337</v>
       </c>
       <c r="R53" s="144">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>794083.58333333337</v>
       </c>
       <c r="S53" s="144">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>144083.58333333331</v>
       </c>
       <c r="T53" s="144">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>122750.25</v>
       </c>
       <c r="U53" s="144">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>77330.25</v>
       </c>
       <c r="V53" s="144">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>77330.25</v>
       </c>
       <c r="W53" s="144">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>77330.25</v>
       </c>
       <c r="X53" s="144">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>77330.25</v>
       </c>
       <c r="Y53" s="144">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>74830.25</v>
       </c>
       <c r="Z53" s="144">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>74830.25</v>
       </c>
       <c r="AA53" s="144">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>74830.25</v>
       </c>
       <c r="AB53" s="144">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>74830.25</v>
       </c>
       <c r="AC53" s="44"/>
@@ -7957,7 +7957,7 @@
         <v>1093900</v>
       </c>
       <c r="N54" s="310">
-        <f t="shared" ref="N54" si="36">N56+N57+N62</f>
+        <f t="shared" ref="N54" si="34">N56+N57+N62</f>
         <v>473700</v>
       </c>
       <c r="O54" s="325">
@@ -7972,31 +7972,31 @@
         <v>719253.33333333337</v>
       </c>
       <c r="R54" s="116">
-        <f t="shared" ref="R54:X54" si="37">R56+R57+SUM(R62:R65)</f>
+        <f t="shared" ref="R54:X54" si="35">R56+R57+SUM(R62:R65)</f>
         <v>719253.33333333337</v>
       </c>
       <c r="S54" s="116">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>69253.333333333328</v>
       </c>
       <c r="T54" s="116">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>47920</v>
       </c>
       <c r="U54" s="116">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>2500</v>
       </c>
       <c r="V54" s="116">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>2500</v>
       </c>
       <c r="W54" s="116">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>2500</v>
       </c>
       <c r="X54" s="116">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>2500</v>
       </c>
       <c r="Y54" s="44"/>
@@ -8701,31 +8701,31 @@
         <v>228</v>
       </c>
       <c r="F68" s="203">
-        <f t="shared" ref="F68:L68" si="38">F67-F90</f>
+        <f t="shared" ref="F68:L68" si="36">F67-F90</f>
         <v>196851</v>
       </c>
       <c r="G68" s="203">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>189684</v>
       </c>
       <c r="H68" s="203">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>192875</v>
       </c>
       <c r="I68" s="203">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>191507</v>
       </c>
       <c r="J68" s="203">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>203997</v>
       </c>
       <c r="K68" s="203">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>204376</v>
       </c>
       <c r="L68" s="203">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>884250</v>
       </c>
       <c r="M68" s="301">
@@ -8791,47 +8791,47 @@
         <v>197741.49947361497</v>
       </c>
       <c r="R69" s="116">
-        <f t="shared" ref="R69:AB69" si="39">Q69*(1+R85)</f>
+        <f t="shared" ref="R69:AB69" si="37">Q69*(1+R85)</f>
         <v>198648.63001710753</v>
       </c>
       <c r="S69" s="116">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>199711.26865377021</v>
       </c>
       <c r="T69" s="116">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>201244.08517867888</v>
       </c>
       <c r="U69" s="116">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>202989.95960222601</v>
       </c>
       <c r="V69" s="116">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>204757.79375261875</v>
       </c>
       <c r="W69" s="116">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>206721.64407812891</v>
       </c>
       <c r="X69" s="116">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>208528.49383340348</v>
       </c>
       <c r="Y69" s="116">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>210535.31291864807</v>
       </c>
       <c r="Z69" s="116">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>212376.56499844257</v>
       </c>
       <c r="AA69" s="116">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>214419.66277456292</v>
       </c>
       <c r="AB69" s="116">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>216486.27947886748</v>
       </c>
       <c r="AC69" s="44"/>
@@ -8925,51 +8925,51 @@
         <v>0</v>
       </c>
       <c r="Q71" s="116">
-        <f t="shared" ref="Q71:AB71" si="40">Q72+Q76</f>
+        <f t="shared" ref="Q71:AB71" si="38">Q72+Q76</f>
         <v>137000</v>
       </c>
       <c r="R71" s="116">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>109000</v>
       </c>
       <c r="S71" s="116">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>109000</v>
       </c>
       <c r="T71" s="116">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>109000</v>
       </c>
       <c r="U71" s="116">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>109000</v>
       </c>
       <c r="V71" s="116">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>109000</v>
       </c>
       <c r="W71" s="116">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>109000</v>
       </c>
       <c r="X71" s="116">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>109000</v>
       </c>
       <c r="Y71" s="116">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>109000</v>
       </c>
       <c r="Z71" s="116">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>59000</v>
       </c>
       <c r="AA71" s="116">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>59000</v>
       </c>
       <c r="AB71" s="116">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>59000</v>
       </c>
       <c r="AC71" s="116"/>
@@ -9000,51 +9000,51 @@
         <v>0</v>
       </c>
       <c r="Q72" s="116">
-        <f t="shared" ref="Q72:AB72" si="41">SUM(Q73:Q74)</f>
+        <f t="shared" ref="Q72:AB72" si="39">SUM(Q73:Q74)</f>
         <v>78000</v>
       </c>
       <c r="R72" s="116">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>50000</v>
       </c>
       <c r="S72" s="116">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>50000</v>
       </c>
       <c r="T72" s="116">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>50000</v>
       </c>
       <c r="U72" s="116">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>50000</v>
       </c>
       <c r="V72" s="116">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>50000</v>
       </c>
       <c r="W72" s="116">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>50000</v>
       </c>
       <c r="X72" s="116">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>50000</v>
       </c>
       <c r="Y72" s="116">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>50000</v>
       </c>
       <c r="Z72" s="116">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AA72" s="116">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AB72" s="116">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AC72" s="44"/>
@@ -9082,7 +9082,7 @@
         <v>60000</v>
       </c>
       <c r="P73" s="332">
-        <f t="shared" ref="P73:P110" si="42">O73-N73</f>
+        <f t="shared" ref="P73:P110" si="40">O73-N73</f>
         <v>0</v>
       </c>
       <c r="Q73" s="116">
@@ -9150,7 +9150,7 @@
         <v>35000</v>
       </c>
       <c r="P74" s="332">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="Q74" s="116">
@@ -9255,7 +9255,7 @@
       <c r="N76" s="310"/>
       <c r="O76" s="325"/>
       <c r="P76" s="332">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="Q76" s="116">
@@ -9263,47 +9263,47 @@
         <v>59000</v>
       </c>
       <c r="R76" s="116">
-        <f t="shared" ref="R76:AB76" si="43">SUM(R77:R80)</f>
+        <f t="shared" ref="R76:AB76" si="41">SUM(R77:R80)</f>
         <v>59000</v>
       </c>
       <c r="S76" s="116">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>59000</v>
       </c>
       <c r="T76" s="116">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>59000</v>
       </c>
       <c r="U76" s="116">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>59000</v>
       </c>
       <c r="V76" s="116">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>59000</v>
       </c>
       <c r="W76" s="116">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>59000</v>
       </c>
       <c r="X76" s="116">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>59000</v>
       </c>
       <c r="Y76" s="116">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>59000</v>
       </c>
       <c r="Z76" s="116">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>59000</v>
       </c>
       <c r="AA76" s="116">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>59000</v>
       </c>
       <c r="AB76" s="116">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>59000</v>
       </c>
       <c r="AC76" s="116"/>
@@ -9633,55 +9633,55 @@
         <v>312147.51507478184</v>
       </c>
       <c r="P81" s="332">
+        <f t="shared" si="40"/>
+        <v>8196.5150747818407</v>
+      </c>
+      <c r="Q81" s="144">
+        <f t="shared" ref="Q81:AB81" si="42">Q69+Q71</f>
+        <v>334741.49947361497</v>
+      </c>
+      <c r="R81" s="144">
         <f t="shared" si="42"/>
-        <v>8196.5150747818407</v>
-      </c>
-      <c r="Q81" s="144">
-        <f t="shared" ref="Q81:AB81" si="44">Q69+Q71</f>
-        <v>334741.49947361497</v>
-      </c>
-      <c r="R81" s="144">
-        <f t="shared" si="44"/>
         <v>307648.63001710753</v>
       </c>
       <c r="S81" s="144">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>308711.26865377021</v>
       </c>
       <c r="T81" s="144">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>310244.08517867886</v>
       </c>
       <c r="U81" s="144">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>311989.95960222604</v>
       </c>
       <c r="V81" s="144">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>313757.79375261872</v>
       </c>
       <c r="W81" s="144">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>315721.64407812891</v>
       </c>
       <c r="X81" s="144">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>317528.49383340345</v>
       </c>
       <c r="Y81" s="144">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>319535.31291864807</v>
       </c>
       <c r="Z81" s="144">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>271376.56499844254</v>
       </c>
       <c r="AA81" s="144">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>273419.66277456295</v>
       </c>
       <c r="AB81" s="144">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>275486.27947886748</v>
       </c>
       <c r="AC81" s="44"/>
@@ -9827,7 +9827,7 @@
         <v>1498.3375986209639</v>
       </c>
       <c r="P84" s="332">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>4.784598620963834</v>
       </c>
       <c r="Q84">
@@ -9899,7 +9899,7 @@
         <v>7.6007616639579556E-3</v>
       </c>
       <c r="P85" s="332">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>3.21754270811625E-3</v>
       </c>
       <c r="Q85" s="196">
@@ -9964,7 +9964,7 @@
       <c r="N86" s="313"/>
       <c r="O86" s="329"/>
       <c r="P86" s="332">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="Q86" s="102">
@@ -9972,15 +9972,15 @@
         <v>71400</v>
       </c>
       <c r="R86" s="102">
-        <f t="shared" ref="R86:T86" si="45">SUM(R87:R89)</f>
+        <f t="shared" ref="R86:T86" si="43">SUM(R87:R89)</f>
         <v>71400</v>
       </c>
       <c r="S86" s="102">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>30600</v>
       </c>
       <c r="T86" s="102">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>30600</v>
       </c>
       <c r="U86" s="186"/>
@@ -10195,27 +10195,27 @@
         <v>515064.18485195568</v>
       </c>
       <c r="P90" s="332">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>2871.1848519556806</v>
       </c>
       <c r="Q90" s="116">
-        <f t="shared" ref="Q90:U90" si="46">Q97*0.74</f>
+        <f t="shared" ref="Q90:U90" si="44">Q97*0.74</f>
         <v>507477.24811825115</v>
       </c>
       <c r="R90" s="116">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v>512541.31638321205</v>
       </c>
       <c r="S90" s="116">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v>512541.31638321205</v>
       </c>
       <c r="T90" s="116">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v>512541.31638321205</v>
       </c>
       <c r="U90" s="116">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v>512541.31638321205</v>
       </c>
       <c r="V90" s="116">
@@ -10277,31 +10277,31 @@
       <c r="B91" s="141"/>
       <c r="E91" s="141"/>
       <c r="F91" s="201">
-        <f t="shared" ref="F91:L91" si="47">F49+F46+F35+F41</f>
+        <f t="shared" ref="F91:L91" si="45">F49+F46+F35+F41</f>
         <v>1440187</v>
       </c>
       <c r="G91" s="201">
-        <f t="shared" si="47"/>
+        <f t="shared" si="45"/>
         <v>1503410</v>
       </c>
       <c r="H91" s="201">
-        <f t="shared" si="47"/>
+        <f t="shared" si="45"/>
         <v>1508652</v>
       </c>
       <c r="I91" s="201">
-        <f t="shared" si="47"/>
+        <f t="shared" si="45"/>
         <v>1513957</v>
       </c>
       <c r="J91" s="201">
-        <f t="shared" si="47"/>
+        <f t="shared" si="45"/>
         <v>1521941</v>
       </c>
       <c r="K91" s="201">
-        <f t="shared" si="47"/>
+        <f t="shared" si="45"/>
         <v>1574462</v>
       </c>
       <c r="L91" s="201">
-        <f t="shared" si="47"/>
+        <f t="shared" si="45"/>
         <v>3741557.333333333</v>
       </c>
       <c r="M91" s="301">
@@ -10315,55 +10315,55 @@
         <v>1966882.3341534182</v>
       </c>
       <c r="P91" s="332">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>-60910.665846581804</v>
       </c>
       <c r="Q91" s="142">
-        <f t="shared" ref="Q91:AB91" si="48">Q49+Q46+Q35+Q41+Q36+Q37+Q38</f>
+        <f t="shared" ref="Q91:AB91" si="46">Q49+Q46+Q35+Q41+Q36+Q37+Q38</f>
         <v>3107701.3980484894</v>
       </c>
       <c r="R91" s="142">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>1874848.87398125</v>
       </c>
       <c r="S91" s="142">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>1686467.5074263907</v>
       </c>
       <c r="T91" s="142">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>1683044.5200377863</v>
       </c>
       <c r="U91" s="142">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>1687990.187838353</v>
       </c>
       <c r="V91" s="142">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>1713310.0406559282</v>
       </c>
       <c r="W91" s="142">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>1739009.691265767</v>
       </c>
       <c r="X91" s="142">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>1756399.7881784246</v>
       </c>
       <c r="Y91" s="142">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="Z91" s="142">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AA91" s="142">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AB91" s="142">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AO91" s="233"/>
@@ -10395,55 +10395,55 @@
         <v>1368117.3718507844</v>
       </c>
       <c r="P92" s="332">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>-4669.6281492155977</v>
       </c>
       <c r="Q92" s="143">
-        <f t="shared" ref="Q92:AB92" si="49">Q90+Q34</f>
+        <f t="shared" ref="Q92:AB92" si="47">Q90+Q34</f>
         <v>1390610.1625906522</v>
       </c>
       <c r="R92" s="143">
-        <f t="shared" si="49"/>
+        <f t="shared" si="47"/>
         <v>1418489.158978964</v>
       </c>
       <c r="S92" s="143">
-        <f t="shared" si="49"/>
+        <f t="shared" si="47"/>
         <v>1441583.4808422038</v>
       </c>
       <c r="T92" s="143">
-        <f t="shared" si="49"/>
+        <f t="shared" si="47"/>
         <v>1483962.7404801806</v>
       </c>
       <c r="U92" s="143">
-        <f t="shared" si="49"/>
+        <f t="shared" si="47"/>
         <v>1515727.7827888038</v>
       </c>
       <c r="V92" s="143">
-        <f t="shared" si="49"/>
+        <f t="shared" si="47"/>
         <v>1506974.123618965</v>
       </c>
       <c r="W92" s="143">
-        <f t="shared" si="49"/>
+        <f t="shared" si="47"/>
         <v>1540850.5361376633</v>
       </c>
       <c r="X92" s="143">
-        <f t="shared" si="49"/>
+        <f t="shared" si="47"/>
         <v>1551631.6801380017</v>
       </c>
       <c r="Y92" s="143">
-        <f t="shared" si="49"/>
+        <f t="shared" si="47"/>
         <v>1091537.5543621723</v>
       </c>
       <c r="Z92" s="143">
-        <f t="shared" si="49"/>
+        <f t="shared" si="47"/>
         <v>1102537.0783156503</v>
       </c>
       <c r="AA92" s="143">
-        <f t="shared" si="49"/>
+        <f t="shared" si="47"/>
         <v>1113647.4454798999</v>
       </c>
       <c r="AB92" s="143">
-        <f t="shared" si="49"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AO92" s="233"/>
@@ -10505,39 +10505,39 @@
         <v>841980.40412777814</v>
       </c>
       <c r="P94" s="332">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>23240.404127778136</v>
       </c>
       <c r="Q94" s="133">
-        <f t="shared" ref="Q94:W94" si="50">Q95+Q97</f>
+        <f t="shared" ref="Q94:W94" si="48">Q95+Q97</f>
         <v>833187.26602163713</v>
       </c>
       <c r="R94" s="133">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v>842504.18011550407</v>
       </c>
       <c r="S94" s="133">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v>844415.87532647082</v>
       </c>
       <c r="T94" s="133">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v>845998.19061933178</v>
       </c>
       <c r="U94" s="133">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v>847741.96665636217</v>
       </c>
       <c r="V94" s="133">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v>849375.94938735757</v>
       </c>
       <c r="W94" s="133">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v>850848.47137418366</v>
       </c>
       <c r="X94" s="133">
-        <f t="shared" ref="X94" si="51">X95+X97</f>
+        <f t="shared" ref="X94" si="49">X95+X97</f>
         <v>852146.61575730611</v>
       </c>
       <c r="AO94" s="233"/>
@@ -10547,27 +10547,27 @@
         <v>230</v>
       </c>
       <c r="F95" s="203">
-        <f t="shared" ref="F95:K95" si="52">F94-F97</f>
+        <f t="shared" ref="F95:K95" si="50">F94-F97</f>
         <v>139025</v>
       </c>
       <c r="G95" s="203">
-        <f t="shared" si="52"/>
+        <f t="shared" si="50"/>
         <v>139342</v>
       </c>
       <c r="H95" s="203">
-        <f t="shared" si="52"/>
+        <f t="shared" si="50"/>
         <v>140228</v>
       </c>
       <c r="I95" s="203">
-        <f t="shared" si="52"/>
+        <f t="shared" si="50"/>
         <v>141105</v>
       </c>
       <c r="J95" s="203">
-        <f t="shared" si="52"/>
+        <f t="shared" si="50"/>
         <v>141335</v>
       </c>
       <c r="K95" s="203">
-        <f t="shared" si="52"/>
+        <f t="shared" si="50"/>
         <v>142991</v>
       </c>
       <c r="L95" s="203">
@@ -10585,7 +10585,7 @@
         <v>145947.72189540553</v>
       </c>
       <c r="P95" s="332">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>839.7218954055279</v>
       </c>
       <c r="Q95" s="133">
@@ -10593,31 +10593,31 @@
         <v>147407.20099697346</v>
       </c>
       <c r="R95" s="133">
-        <f t="shared" ref="R95:X95" si="53">Q95*(1+R106)</f>
+        <f t="shared" ref="R95:X95" si="51">Q95*(1+R106)</f>
         <v>149880.77959764996</v>
       </c>
       <c r="S95" s="133">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v>151792.47480861668</v>
       </c>
       <c r="T95" s="133">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v>153374.79010147764</v>
       </c>
       <c r="U95" s="133">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v>155118.56613850809</v>
       </c>
       <c r="V95" s="133">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v>156752.54886950349</v>
       </c>
       <c r="W95" s="133">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v>158225.07085632949</v>
       </c>
       <c r="X95" s="133">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v>159523.21523945199</v>
       </c>
       <c r="AO95" s="233"/>
@@ -10679,7 +10679,7 @@
         <v>696032.68223237258</v>
       </c>
       <c r="P97" s="332">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>22400.682232372579</v>
       </c>
       <c r="Q97" s="135">
@@ -10695,23 +10695,23 @@
         <v>692623.40051785414</v>
       </c>
       <c r="T97" s="135">
-        <f t="shared" ref="T97:X97" si="54">S97*(1+T98)</f>
+        <f t="shared" ref="T97:X97" si="52">S97*(1+T98)</f>
         <v>692623.40051785414</v>
       </c>
       <c r="U97" s="135">
-        <f t="shared" si="54"/>
+        <f t="shared" si="52"/>
         <v>692623.40051785414</v>
       </c>
       <c r="V97" s="135">
-        <f t="shared" si="54"/>
+        <f t="shared" si="52"/>
         <v>692623.40051785414</v>
       </c>
       <c r="W97" s="135">
-        <f t="shared" si="54"/>
+        <f t="shared" si="52"/>
         <v>692623.40051785414</v>
       </c>
       <c r="X97" s="135">
-        <f t="shared" si="54"/>
+        <f t="shared" si="52"/>
         <v>692623.40051785414</v>
       </c>
       <c r="AF97" s="45">
@@ -10785,38 +10785,38 @@
         <v>222</v>
       </c>
       <c r="F99" s="208">
-        <f t="shared" ref="F99:L99" si="55">F90/F97</f>
+        <f t="shared" ref="F99:L99" si="53">F90/F97</f>
         <v>0.66058231423538405</v>
       </c>
       <c r="G99" s="208">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>0.6749214177505789</v>
       </c>
       <c r="H99" s="208">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>0.68242012696430432</v>
       </c>
       <c r="I99" s="208">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>0.6730637268687778</v>
       </c>
       <c r="J99" s="208">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>0.66395699382859508</v>
       </c>
       <c r="K99" s="208">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>0.67846773573296415</v>
       </c>
       <c r="L99" s="208">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>0.76648081779484256</v>
       </c>
       <c r="M99" s="208">
         <v>0.71094027669909299</v>
       </c>
       <c r="N99" s="208">
-        <f t="shared" ref="N99" si="56">N90/N97</f>
+        <f t="shared" ref="N99" si="54">N90/N97</f>
         <v>0.76034541114436371</v>
       </c>
       <c r="O99" s="338">
@@ -10874,7 +10874,7 @@
         <v>2032.0348826405864</v>
       </c>
       <c r="P100" s="332">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>47.487882640586349</v>
       </c>
       <c r="Q100" s="35">
@@ -10882,31 +10882,31 @@
         <v>2009.5840333646127</v>
       </c>
       <c r="R100" s="35">
-        <f t="shared" ref="R100:X100" si="57">Q100*(1+R102)</f>
+        <f t="shared" ref="R100:X100" si="55">Q100*(1+R102)</f>
         <v>2031.5173022625379</v>
       </c>
       <c r="S100" s="35">
-        <f t="shared" si="57"/>
+        <f t="shared" si="55"/>
         <v>2046.001536440413</v>
       </c>
       <c r="T100" s="35">
-        <f t="shared" si="57"/>
+        <f t="shared" si="55"/>
         <v>2056.0370415493694</v>
       </c>
       <c r="U100" s="35">
-        <f t="shared" si="57"/>
+        <f t="shared" si="55"/>
         <v>2065.9690878427696</v>
       </c>
       <c r="V100" s="35">
-        <f t="shared" si="57"/>
+        <f t="shared" si="55"/>
         <v>2073.2112049317075</v>
       </c>
       <c r="W100" s="35">
-        <f t="shared" si="57"/>
+        <f t="shared" si="55"/>
         <v>2077.6599340006264</v>
       </c>
       <c r="X100" s="35">
-        <f t="shared" si="57"/>
+        <f t="shared" si="55"/>
         <v>2079.3152750495265</v>
       </c>
       <c r="AO100" s="233"/>
@@ -10920,27 +10920,27 @@
       <c r="D101" s="35"/>
       <c r="F101" s="200"/>
       <c r="G101" s="200">
-        <f t="shared" ref="G101:L101" si="58">(G100/F100)-1</f>
+        <f t="shared" ref="G101:L101" si="56">(G100/F100)-1</f>
         <v>7.8113264233139468E-3</v>
       </c>
       <c r="H101" s="200">
-        <f t="shared" si="58"/>
+        <f t="shared" si="56"/>
         <v>6.3596164356336526E-3</v>
       </c>
       <c r="I101" s="200">
-        <f t="shared" si="58"/>
+        <f t="shared" si="56"/>
         <v>1.3823747222907468E-3</v>
       </c>
       <c r="J101" s="200">
-        <f t="shared" si="58"/>
+        <f t="shared" si="56"/>
         <v>3.5990731154167399E-3</v>
       </c>
       <c r="K101" s="200">
-        <f t="shared" si="58"/>
+        <f t="shared" si="56"/>
         <v>2.6527805069758159E-3</v>
       </c>
       <c r="L101" s="200">
-        <f t="shared" si="58"/>
+        <f t="shared" si="56"/>
         <v>-1.36697697207252E-2</v>
       </c>
       <c r="M101" s="302">
@@ -10952,7 +10952,7 @@
       </c>
       <c r="O101" s="331"/>
       <c r="P101" s="332">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>4.2668250837534227E-3</v>
       </c>
       <c r="Q101" s="252"/>
@@ -10990,7 +10990,7 @@
         <v>1.95599022004889E-2</v>
       </c>
       <c r="P102" s="332">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>1.95599022004889E-2</v>
       </c>
       <c r="Q102" s="196">
@@ -11066,7 +11066,7 @@
         <v>2431.4160000000002</v>
       </c>
       <c r="P103" s="332">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>94.215000000000146</v>
       </c>
       <c r="Q103">
@@ -11118,7 +11118,7 @@
         <v>2335.4290124999998</v>
       </c>
       <c r="P104" s="332">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>2335.4290124999998</v>
       </c>
       <c r="Q104">
@@ -11126,19 +11126,19 @@
         <v>0</v>
       </c>
       <c r="R104">
-        <f t="shared" ref="R104:U104" si="59">Q104*(1+R107)</f>
+        <f t="shared" ref="R104:U104" si="57">Q104*(1+R107)</f>
         <v>0</v>
       </c>
       <c r="S104">
-        <f t="shared" si="59"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="T104">
-        <f t="shared" si="59"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="U104">
-        <f t="shared" si="59"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="V104">
@@ -11146,11 +11146,11 @@
         <v>0</v>
       </c>
       <c r="W104">
-        <f t="shared" ref="W104:X104" si="60">V104*(1+W106)</f>
+        <f t="shared" ref="W104:X104" si="58">V104*(1+W106)</f>
         <v>0</v>
       </c>
       <c r="X104">
-        <f t="shared" si="60"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="Y104"/>
@@ -11171,11 +11171,11 @@
       <c r="I105" s="200"/>
       <c r="J105" s="200"/>
       <c r="K105" s="200">
-        <f t="shared" ref="K105" si="61">(K103/J103)-1</f>
+        <f t="shared" ref="K105" si="59">(K103/J103)-1</f>
         <v>1.0265546788835067E-2</v>
       </c>
       <c r="L105" s="200">
-        <f t="shared" ref="L105" si="62">(L103/K103)-1</f>
+        <f t="shared" ref="L105" si="60">(L103/K103)-1</f>
         <v>-1.9776620759153429E-2</v>
       </c>
       <c r="M105" s="302">
@@ -11217,7 +11217,7 @@
         <v>2.3086380401621254E-2</v>
       </c>
       <c r="P106" s="332">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>2.3086380401621254E-2</v>
       </c>
       <c r="Q106" s="196">
@@ -11266,7 +11266,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="P107" s="332">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="Q107" s="175">
@@ -11294,31 +11294,31 @@
         <v>163</v>
       </c>
       <c r="F108" s="201">
-        <f t="shared" ref="F108:L108" si="63">F94+F45-F90</f>
+        <f t="shared" ref="F108:L108" si="61">F94+F45-F90</f>
         <v>339220</v>
       </c>
       <c r="G108" s="201">
-        <f t="shared" si="63"/>
+        <f t="shared" si="61"/>
         <v>334185</v>
       </c>
       <c r="H108" s="201">
-        <f t="shared" si="63"/>
+        <f t="shared" si="61"/>
         <v>335532</v>
       </c>
       <c r="I108" s="201">
-        <f t="shared" si="63"/>
+        <f t="shared" si="61"/>
         <v>344546</v>
       </c>
       <c r="J108" s="201">
-        <f t="shared" si="63"/>
+        <f t="shared" si="61"/>
         <v>349558</v>
       </c>
       <c r="K108" s="201">
-        <f t="shared" si="63"/>
+        <f t="shared" si="61"/>
         <v>343658</v>
       </c>
       <c r="L108" s="201">
-        <f t="shared" si="63"/>
+        <f t="shared" si="61"/>
         <v>548584.66666666674</v>
       </c>
       <c r="M108" s="301">
@@ -11332,51 +11332,51 @@
         <v>413916.21927582246</v>
       </c>
       <c r="P108" s="332">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>70669.219275822456</v>
       </c>
       <c r="Q108" s="215">
-        <f t="shared" ref="Q108:AA108" si="64">Q94+Q45-Q90</f>
+        <f t="shared" ref="Q108:AA108" si="62">Q94+Q45-Q90</f>
         <v>385710.01790338597</v>
       </c>
       <c r="R108" s="215">
-        <f t="shared" si="64"/>
+        <f t="shared" si="62"/>
         <v>373962.86373229203</v>
       </c>
       <c r="S108" s="215">
-        <f t="shared" si="64"/>
+        <f t="shared" si="62"/>
         <v>375874.55894325877</v>
       </c>
       <c r="T108" s="215">
-        <f t="shared" si="64"/>
+        <f t="shared" si="62"/>
         <v>377456.87423611974</v>
       </c>
       <c r="U108" s="215">
-        <f t="shared" si="64"/>
+        <f t="shared" si="62"/>
         <v>379200.65027315012</v>
       </c>
       <c r="V108" s="215">
-        <f t="shared" si="64"/>
+        <f t="shared" si="62"/>
         <v>422392.03703521669</v>
       </c>
       <c r="W108" s="215">
-        <f t="shared" si="64"/>
+        <f t="shared" si="62"/>
         <v>423864.55902204278</v>
       </c>
       <c r="X108" s="215">
-        <f t="shared" si="64"/>
+        <f t="shared" si="62"/>
         <v>425162.70340516523</v>
       </c>
       <c r="Y108" s="215">
-        <f t="shared" si="64"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="Z108" s="215">
-        <f t="shared" si="64"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="AA108" s="215">
-        <f t="shared" si="64"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="AO108" s="233"/>
@@ -11388,31 +11388,31 @@
       <c r="B109" s="141"/>
       <c r="E109" s="141"/>
       <c r="F109" s="201">
-        <f t="shared" ref="F109:L109" si="65">F97-F90</f>
+        <f t="shared" ref="F109:L109" si="63">F97-F90</f>
         <v>200195</v>
       </c>
       <c r="G109" s="201">
-        <f t="shared" si="65"/>
+        <f t="shared" si="63"/>
         <v>194843</v>
       </c>
       <c r="H109" s="201">
-        <f t="shared" si="65"/>
+        <f t="shared" si="63"/>
         <v>195304</v>
       </c>
       <c r="I109" s="201">
-        <f t="shared" si="65"/>
+        <f t="shared" si="63"/>
         <v>203441</v>
       </c>
       <c r="J109" s="201">
-        <f t="shared" si="65"/>
+        <f t="shared" si="63"/>
         <v>208223</v>
       </c>
       <c r="K109" s="201">
-        <f t="shared" si="65"/>
+        <f t="shared" si="63"/>
         <v>200667</v>
       </c>
       <c r="L109" s="201">
-        <f t="shared" si="65"/>
+        <f t="shared" si="63"/>
         <v>156183</v>
       </c>
       <c r="M109" s="301">
@@ -11426,51 +11426,51 @@
         <v>180968.4973804169</v>
       </c>
       <c r="P109" s="332">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>19529.497380416899</v>
       </c>
       <c r="Q109" s="142">
-        <f t="shared" ref="Q109:AA109" si="66">Q97-Q90</f>
+        <f t="shared" ref="Q109:AA109" si="64">Q97-Q90</f>
         <v>178302.81690641254</v>
       </c>
       <c r="R109" s="142">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v>180082.08413464209</v>
       </c>
       <c r="S109" s="142">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v>180082.08413464209</v>
       </c>
       <c r="T109" s="142">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v>180082.08413464209</v>
       </c>
       <c r="U109" s="142">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v>180082.08413464209</v>
       </c>
       <c r="V109" s="142">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v>221639.48816571326</v>
       </c>
       <c r="W109" s="142">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v>221639.48816571326</v>
       </c>
       <c r="X109" s="142">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v>221639.48816571326</v>
       </c>
       <c r="Y109" s="142">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="Z109" s="142">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="AA109" s="142">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="AO109" s="233"/>
@@ -11482,27 +11482,27 @@
       <c r="C110" s="35"/>
       <c r="D110" s="35"/>
       <c r="F110" s="201">
-        <f t="shared" ref="F110:K110" si="67">F108-F109</f>
+        <f t="shared" ref="F110:K110" si="65">F108-F109</f>
         <v>139025</v>
       </c>
       <c r="G110" s="201">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>139342</v>
       </c>
       <c r="H110" s="201">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>140228</v>
       </c>
       <c r="I110" s="201">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>141105</v>
       </c>
       <c r="J110" s="201">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>141335</v>
       </c>
       <c r="K110" s="201">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>142991</v>
       </c>
       <c r="L110" s="201">
@@ -11520,51 +11520,51 @@
         <v>232947.72189540556</v>
       </c>
       <c r="P110" s="332">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>51139.721895405557</v>
       </c>
       <c r="Q110" s="142">
-        <f t="shared" ref="Q110:AA110" si="68">Q108-Q109</f>
+        <f t="shared" ref="Q110:AA110" si="66">Q108-Q109</f>
         <v>207407.20099697344</v>
       </c>
       <c r="R110" s="142">
-        <f t="shared" si="68"/>
+        <f t="shared" si="66"/>
         <v>193880.77959764993</v>
       </c>
       <c r="S110" s="142">
-        <f t="shared" si="68"/>
+        <f t="shared" si="66"/>
         <v>195792.47480861668</v>
       </c>
       <c r="T110" s="142">
-        <f t="shared" si="68"/>
+        <f t="shared" si="66"/>
         <v>197374.79010147764</v>
       </c>
       <c r="U110" s="142">
-        <f t="shared" si="68"/>
+        <f t="shared" si="66"/>
         <v>199118.56613850803</v>
       </c>
       <c r="V110" s="142">
-        <f t="shared" si="68"/>
+        <f t="shared" si="66"/>
         <v>200752.54886950343</v>
       </c>
       <c r="W110" s="142">
-        <f t="shared" si="68"/>
+        <f t="shared" si="66"/>
         <v>202225.07085632952</v>
       </c>
       <c r="X110" s="142">
-        <f t="shared" si="68"/>
+        <f t="shared" si="66"/>
         <v>203523.21523945197</v>
       </c>
       <c r="Y110" s="142">
-        <f t="shared" si="68"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="Z110" s="142">
-        <f t="shared" si="68"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="AA110" s="142">
-        <f t="shared" si="68"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="AO110" s="256"/>
@@ -22418,13 +22418,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F6A688-71E8-4308-9AE6-7C668128D989}">
-  <dimension ref="A1:AT73"/>
+  <dimension ref="A1:AX73"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="8" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="8" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16:AX16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -22442,7 +22442,7 @@
     <col min="27" max="27" width="8.6640625" style="146"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="359" t="s">
         <v>207</v>
       </c>
@@ -22458,7 +22458,7 @@
       <c r="X1" s="351"/>
       <c r="Y1" s="351"/>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A2" s="361" t="s">
         <v>191</v>
       </c>
@@ -22469,7 +22469,7 @@
       <c r="I2" s="241"/>
       <c r="J2" s="367"/>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A3" s="362"/>
       <c r="B3" s="127"/>
       <c r="C3" t="s">
@@ -22478,21 +22478,21 @@
       <c r="I3" s="241"/>
       <c r="J3" s="367"/>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A4" s="362"/>
       <c r="B4" s="128"/>
       <c r="C4" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A5" s="363"/>
       <c r="B5" s="129"/>
       <c r="C5" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.2">
       <c r="C7" s="364" t="s">
         <v>160</v>
       </c>
@@ -22533,7 +22533,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="8" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>199</v>
       </c>
@@ -22613,7 +22613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:46" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="106" t="s">
         <v>164</v>
       </c>
@@ -22635,7 +22635,7 @@
       <c r="W9" s="148"/>
       <c r="AA9" s="148"/>
     </row>
-    <row r="10" spans="1:46" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:50" ht="16" x14ac:dyDescent="0.2">
       <c r="B10" s="86" t="s">
         <v>170</v>
       </c>
@@ -22652,124 +22652,136 @@
         <v>161.40700000000001</v>
       </c>
       <c r="H10">
-        <v>167.34017428738599</v>
+        <v>165.59009035050261</v>
       </c>
       <c r="I10">
-        <v>173.273348574773</v>
+        <v>169.77318070100509</v>
       </c>
       <c r="J10">
-        <v>179.20652286215901</v>
+        <v>173.95627105150791</v>
       </c>
       <c r="K10">
-        <v>177.42276079295601</v>
+        <v>174.54654357698769</v>
       </c>
       <c r="L10">
-        <v>175.63899872375401</v>
+        <v>175.13681610246749</v>
       </c>
       <c r="M10">
-        <v>173.85523665455199</v>
+        <v>175.72708862794721</v>
       </c>
       <c r="N10">
-        <v>172.07147458534899</v>
+        <v>176.31736115342699</v>
       </c>
       <c r="O10">
-        <v>170.30521917757301</v>
+        <v>174.4074844576952</v>
       </c>
       <c r="P10">
-        <v>168.53896376979699</v>
+        <v>172.49760776196339</v>
       </c>
       <c r="Q10">
-        <v>166.77270836202001</v>
+        <v>170.58773106623161</v>
       </c>
       <c r="R10">
-        <v>165.006452954244</v>
+        <v>168.67785437049989</v>
       </c>
       <c r="S10">
-        <v>166.865827127796</v>
+        <v>169.67544494515229</v>
       </c>
       <c r="T10">
-        <v>168.72520130134799</v>
+        <v>170.6730355198049</v>
       </c>
       <c r="U10">
-        <v>170.584575474899</v>
+        <v>171.6706260944575</v>
       </c>
       <c r="V10">
-        <v>172.443949648451</v>
+        <v>172.66821666911011</v>
       </c>
       <c r="W10">
-        <v>174.79934589574</v>
+        <v>175.2342089258436</v>
       </c>
       <c r="X10">
-        <v>177.15474214302901</v>
+        <v>177.8002011825771</v>
       </c>
       <c r="Y10">
-        <v>179.51013839031901</v>
+        <v>180.36619343931071</v>
       </c>
       <c r="Z10">
-        <v>181.86553463760799</v>
+        <v>182.93218569604429</v>
       </c>
       <c r="AA10">
-        <v>184.316550602305</v>
+        <v>185.48754704600071</v>
       </c>
       <c r="AB10">
-        <v>186.76756656700101</v>
+        <v>188.04290839595731</v>
       </c>
       <c r="AC10">
-        <v>189.21858253169799</v>
+        <v>190.59826974591391</v>
       </c>
       <c r="AD10">
-        <v>191.669598496395</v>
+        <v>193.1536310958704</v>
       </c>
       <c r="AE10">
-        <v>194.21548389301</v>
+        <v>196.08321751100041</v>
       </c>
       <c r="AF10">
-        <v>196.76136928962501</v>
+        <v>199.01280392613029</v>
       </c>
       <c r="AG10">
-        <v>199.30725468623999</v>
+        <v>201.94239034126039</v>
       </c>
       <c r="AH10">
-        <v>201.85314008285499</v>
+        <v>204.87197675639041</v>
       </c>
       <c r="AI10">
-        <v>204.49522875225901</v>
+        <v>207.82531124553029</v>
       </c>
       <c r="AJ10">
-        <v>207.137317421663</v>
+        <v>210.77864573467019</v>
       </c>
       <c r="AK10">
-        <v>209.77940609106699</v>
+        <v>213.7319802238101</v>
       </c>
       <c r="AL10">
-        <v>212.42149476047001</v>
+        <v>216.68531471295</v>
       </c>
       <c r="AM10">
-        <v>215.21889252623899</v>
+        <v>219.73698508977679</v>
       </c>
       <c r="AN10">
-        <v>218.01629029200799</v>
+        <v>222.7886554666039</v>
       </c>
       <c r="AO10">
-        <v>220.813688057777</v>
+        <v>225.8403258434308</v>
       </c>
       <c r="AP10">
-        <v>223.61108582354601</v>
+        <v>228.89199622025771</v>
       </c>
       <c r="AQ10">
-        <v>226.66491449667799</v>
+        <v>232.11178924377541</v>
       </c>
       <c r="AR10">
-        <v>229.71874316981101</v>
+        <v>235.3315822672931</v>
       </c>
       <c r="AS10">
-        <v>232.77257184294399</v>
+        <v>238.55137529081071</v>
       </c>
       <c r="AT10">
-        <v>235.826400516077</v>
-      </c>
-    </row>
-    <row r="11" spans="1:46" ht="16" x14ac:dyDescent="0.2">
+        <v>241.77116831432841</v>
+      </c>
+      <c r="AU10">
+        <v>245.1168175567866</v>
+      </c>
+      <c r="AV10">
+        <v>248.46246679924459</v>
+      </c>
+      <c r="AW10">
+        <v>251.80811604170259</v>
+      </c>
+      <c r="AX10">
+        <v>255.15376528416061</v>
+      </c>
+    </row>
+    <row r="11" spans="1:50" ht="16" x14ac:dyDescent="0.2">
       <c r="B11" s="86" t="s">
         <v>171</v>
       </c>
@@ -22903,7 +22915,7 @@
         <v>186.47180988614599</v>
       </c>
     </row>
-    <row r="12" spans="1:46" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:50" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="86" t="s">
         <v>172</v>
       </c>
@@ -23037,7 +23049,7 @@
         <v>2875.95246504137</v>
       </c>
     </row>
-    <row r="13" spans="1:46" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:50" ht="16" x14ac:dyDescent="0.2">
       <c r="B13" s="86" t="s">
         <v>173</v>
       </c>
@@ -23171,7 +23183,7 @@
         <v>105.012474965631</v>
       </c>
     </row>
-    <row r="14" spans="1:46" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:50" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" s="86" t="s">
         <v>175</v>
       </c>
@@ -23188,124 +23200,136 @@
         <v>1372.7929999999999</v>
       </c>
       <c r="H14">
-        <v>1378.3579870429701</v>
+        <v>1365.228724966064</v>
       </c>
       <c r="I14">
-        <v>1383.92297408593</v>
+        <v>1357.664449932128</v>
       </c>
       <c r="J14">
-        <v>1389.4879611289</v>
+        <v>1350.1001748981921</v>
       </c>
       <c r="K14">
-        <v>1425.27167973107</v>
+        <v>1379.0396158890269</v>
       </c>
       <c r="L14">
-        <v>1461.05539833324</v>
+        <v>1407.979056879863</v>
       </c>
       <c r="M14">
-        <v>1496.8391169353999</v>
+        <v>1436.918497870698</v>
       </c>
       <c r="N14">
-        <v>1532.6228355375699</v>
+        <v>1465.857938861534</v>
       </c>
       <c r="O14">
-        <v>1537.1112064838801</v>
+        <v>1477.7858704800731</v>
       </c>
       <c r="P14">
-        <v>1541.5995774302</v>
+        <v>1489.7138020986119</v>
       </c>
       <c r="Q14">
-        <v>1546.08794837651</v>
+        <v>1501.6417337171511</v>
       </c>
       <c r="R14">
-        <v>1550.5763193228199</v>
+        <v>1513.569665335689</v>
       </c>
       <c r="S14">
-        <v>1562.34285068649</v>
+        <v>1523.810291133271</v>
       </c>
       <c r="T14">
-        <v>1574.1093820501501</v>
+        <v>1534.0509169308521</v>
       </c>
       <c r="U14">
-        <v>1585.8759134138199</v>
+        <v>1544.2915427284329</v>
       </c>
       <c r="V14">
-        <v>1597.64244477749</v>
+        <v>1554.5321685260139</v>
       </c>
       <c r="W14">
-        <v>1635.9193257586801</v>
+        <v>1592.5682674016571</v>
       </c>
       <c r="X14">
-        <v>1674.1962067398799</v>
+        <v>1630.6043662772991</v>
       </c>
       <c r="Y14">
-        <v>1712.47308772108</v>
+        <v>1668.640465152941</v>
       </c>
       <c r="Z14">
-        <v>1750.7499687022801</v>
+        <v>1706.6765640285839</v>
       </c>
       <c r="AA14">
-        <v>1779.2915341776099</v>
+        <v>1735.126996577955</v>
       </c>
       <c r="AB14">
-        <v>1807.8330996529301</v>
+        <v>1763.577429127326</v>
       </c>
       <c r="AC14">
-        <v>1836.3746651282599</v>
+        <v>1792.027861676698</v>
       </c>
       <c r="AD14">
-        <v>1864.9162306035801</v>
+        <v>1820.478294226069</v>
       </c>
       <c r="AE14">
-        <v>1895.35590123887</v>
+        <v>1851.8765870702759</v>
       </c>
       <c r="AF14">
-        <v>1925.79557187416</v>
+        <v>1883.2748799144831</v>
       </c>
       <c r="AG14">
-        <v>1956.23524250944</v>
+        <v>1914.67317275869</v>
       </c>
       <c r="AH14">
-        <v>1986.67491314473</v>
+        <v>1946.071465602897</v>
       </c>
       <c r="AI14">
-        <v>2036.3219928257399</v>
+        <v>1995.873954252166</v>
       </c>
       <c r="AJ14">
-        <v>2085.9690725067599</v>
+        <v>2045.6764429014349</v>
       </c>
       <c r="AK14">
-        <v>2135.6161521877698</v>
+        <v>2095.4789315507051</v>
       </c>
       <c r="AL14">
-        <v>2185.2632318687802</v>
+        <v>2145.281420199974</v>
       </c>
       <c r="AM14">
-        <v>2183.7826684679499</v>
+        <v>2145.0480738955612</v>
       </c>
       <c r="AN14">
-        <v>2182.30210506712</v>
+        <v>2144.8147275911479</v>
       </c>
       <c r="AO14">
-        <v>2180.8215416662802</v>
+        <v>2144.581381286735</v>
       </c>
       <c r="AP14">
-        <v>2179.3409782654498</v>
+        <v>2144.3480349823212</v>
       </c>
       <c r="AQ14">
-        <v>2229.9276800644402</v>
+        <v>2194.8302571509271</v>
       </c>
       <c r="AR14">
-        <v>2280.5143818634301</v>
+        <v>2245.312479319532</v>
       </c>
       <c r="AS14">
-        <v>2331.10108366242</v>
+        <v>2295.794701488137</v>
       </c>
       <c r="AT14">
-        <v>2381.6877854613999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:46" ht="16" x14ac:dyDescent="0.2">
+        <v>2346.2769236567419</v>
+      </c>
+      <c r="AU14">
+        <v>2390.3190668283441</v>
+      </c>
+      <c r="AV14">
+        <v>2434.3612099999468</v>
+      </c>
+      <c r="AW14">
+        <v>2478.403353171549</v>
+      </c>
+      <c r="AX14">
+        <v>2522.4454963431522</v>
+      </c>
+    </row>
+    <row r="15" spans="1:50" ht="16" x14ac:dyDescent="0.2">
       <c r="B15" s="86" t="s">
         <v>166</v>
       </c>
@@ -23439,7 +23463,7 @@
         <v>2011.1030125773</v>
       </c>
     </row>
-    <row r="16" spans="1:46" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:50" ht="16" x14ac:dyDescent="0.2">
       <c r="B16" s="86" t="s">
         <v>169</v>
       </c>
@@ -23456,124 +23480,136 @@
         <v>609.9</v>
       </c>
       <c r="H16">
-        <v>611.96656992985299</v>
+        <v>612.6833822665883</v>
       </c>
       <c r="I16">
-        <v>614.17827301508498</v>
+        <v>615.55472695243679</v>
       </c>
       <c r="J16">
-        <v>616.56665994164803</v>
+        <v>618.4920434527304</v>
       </c>
       <c r="K16">
-        <v>619.14119591532699</v>
+        <v>621.4890487375219</v>
       </c>
       <c r="L16">
-        <v>621.81353901545697</v>
+        <v>624.52061068702278</v>
       </c>
       <c r="M16">
-        <v>624.53005307592002</v>
+        <v>627.53332354668225</v>
       </c>
       <c r="N16">
-        <v>627.28127289093095</v>
+        <v>630.49891368173814</v>
       </c>
       <c r="O16">
-        <v>630.06719846048804</v>
+        <v>633.44565472695251</v>
       </c>
       <c r="P16">
-        <v>632.89413992178299</v>
+        <v>636.38611274221967</v>
       </c>
       <c r="Q16">
-        <v>635.73370165745905</v>
+        <v>639.3359953024077</v>
       </c>
       <c r="R16">
-        <v>638.61427928487205</v>
+        <v>642.31415149735767</v>
       </c>
       <c r="S16">
-        <v>641.53587280402303</v>
+        <v>645.32058132706993</v>
       </c>
       <c r="T16">
-        <v>644.48901700912495</v>
+        <v>648.34586024662372</v>
       </c>
       <c r="U16">
-        <v>647.44847135141902</v>
+        <v>651.36485613623017</v>
       </c>
       <c r="V16">
-        <v>650.42370103668804</v>
+        <v>654.39327657075751</v>
       </c>
       <c r="W16">
-        <v>653.41470606493294</v>
+        <v>657.42798003523194</v>
       </c>
       <c r="X16">
-        <v>656.41202123036805</v>
+        <v>660.45954198473294</v>
       </c>
       <c r="Y16">
-        <v>659.39356105282798</v>
+        <v>663.45340575455089</v>
       </c>
       <c r="Z16">
-        <v>662.378255943883</v>
+        <v>666.42527891955376</v>
       </c>
       <c r="AA16">
-        <v>665.36295083493701</v>
+        <v>669.37516147974168</v>
       </c>
       <c r="AB16">
-        <v>668.34449065739705</v>
+        <v>672.30619495008807</v>
       </c>
       <c r="AC16">
-        <v>671.31341020547598</v>
+        <v>675.20895478567229</v>
       </c>
       <c r="AD16">
-        <v>674.27286454776902</v>
+        <v>678.10857310628319</v>
       </c>
       <c r="AE16">
-        <v>677.24178409584704</v>
+        <v>681.01133294186729</v>
       </c>
       <c r="AF16">
-        <v>680.22963405549694</v>
+        <v>683.91723429242518</v>
       </c>
       <c r="AG16">
-        <v>683.22694922093297</v>
+        <v>686.82627715795672</v>
       </c>
       <c r="AH16">
-        <v>686.24634986653496</v>
+        <v>689.75416911332968</v>
       </c>
       <c r="AI16">
-        <v>689.29730119808801</v>
+        <v>692.68834409864951</v>
       </c>
       <c r="AJ16">
-        <v>692.36402787261795</v>
+        <v>695.63508514386388</v>
       </c>
       <c r="AK16">
-        <v>695.46861537028997</v>
+        <v>698.61952436876106</v>
       </c>
       <c r="AL16">
-        <v>698.59844341672397</v>
+        <v>701.63537874339409</v>
       </c>
       <c r="AM16">
-        <v>701.75351201191904</v>
+        <v>704.68578978273661</v>
       </c>
       <c r="AN16">
-        <v>704.930666087281</v>
+        <v>707.76447445684096</v>
       </c>
       <c r="AO16">
-        <v>708.12359550561803</v>
+        <v>710.8651497357605</v>
       </c>
       <c r="AP16">
-        <v>711.30705971816997</v>
+        <v>713.9626834997066</v>
       </c>
       <c r="AQ16">
-        <v>714.49052393072202</v>
+        <v>717.05393423370526</v>
       </c>
       <c r="AR16">
-        <v>717.67398814327396</v>
+        <v>720.14832648267759</v>
       </c>
       <c r="AS16">
-        <v>720.84798715004104</v>
+        <v>723.2427187316498</v>
       </c>
       <c r="AT16">
-        <v>724.00621081383099</v>
-      </c>
-    </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.2">
+        <v>726.33711098062236</v>
+      </c>
+      <c r="AU16">
+        <v>729.44092777451556</v>
+      </c>
+      <c r="AV16">
+        <v>732.5478860833822</v>
+      </c>
+      <c r="AW16">
+        <v>735.66112742219616</v>
+      </c>
+      <c r="AX16">
+        <v>738.77122724603657</v>
+      </c>
+    </row>
+    <row r="17" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>195</v>
       </c>
@@ -23581,133 +23617,136 @@
         <v>204.37100000000001</v>
       </c>
       <c r="E17">
-        <v>252.25</v>
+        <v>279.25</v>
       </c>
       <c r="F17">
         <v>300.60000000000002</v>
       </c>
       <c r="G17">
-        <v>225.90700000000001</v>
+        <v>303.95100000000002</v>
       </c>
       <c r="H17">
-        <v>210.041753543699</v>
+        <v>257.15358627705501</v>
       </c>
       <c r="I17">
-        <v>194.61359749402999</v>
+        <v>228.45877209582619</v>
       </c>
       <c r="J17">
-        <v>179.76822865320401</v>
+        <v>212.05070141102621</v>
       </c>
       <c r="K17">
-        <v>191.17307594225301</v>
+        <v>217.20219820767471</v>
       </c>
       <c r="L17">
-        <v>203.37638597069</v>
+        <v>223.05909969580759</v>
       </c>
       <c r="M17">
-        <v>215.66199298865499</v>
+        <v>228.5975776874576</v>
       </c>
       <c r="N17">
-        <v>228.68219662636</v>
+        <v>234.17911675344899</v>
       </c>
       <c r="O17">
-        <v>241.058465892621</v>
+        <v>247.8674048768593</v>
       </c>
       <c r="P17">
-        <v>254.184146750856</v>
+        <v>261.5571401329762</v>
       </c>
       <c r="Q17">
-        <v>266.689343292064</v>
+        <v>275.39010761536798</v>
       </c>
       <c r="R17">
-        <v>279.950983357084</v>
+        <v>289.36457004926609</v>
       </c>
       <c r="S17">
-        <v>281.79554962604601</v>
+        <v>294.30374747872452</v>
       </c>
       <c r="T17">
-        <v>283.71706522607298</v>
+        <v>299.40325070867152</v>
       </c>
       <c r="U17">
-        <v>285.68404918742999</v>
+        <v>304.56298146943863</v>
       </c>
       <c r="V17">
-        <v>287.70871148223603</v>
+        <v>309.82454061176958</v>
       </c>
       <c r="W17">
-        <v>288.21732438002601</v>
+        <v>310.20067961913003</v>
       </c>
       <c r="X17">
-        <v>289.46575636245899</v>
+        <v>310.61458852425028</v>
       </c>
       <c r="Y17">
-        <v>290.04112911790401</v>
+        <v>311.07683450531948</v>
       </c>
       <c r="Z17">
-        <v>290.65842277810202</v>
+        <v>311.57998240336798</v>
       </c>
       <c r="AA17">
-        <v>291.010133711366</v>
+        <v>312.18613989479883</v>
       </c>
       <c r="AB17">
-        <v>292.101911257719</v>
+        <v>312.85179437427092</v>
       </c>
       <c r="AC17">
-        <v>292.51155268901601</v>
+        <v>313.5571751108431</v>
       </c>
       <c r="AD17">
-        <v>293.65890846872298</v>
+        <v>314.35073176196499</v>
       </c>
       <c r="AE17">
-        <v>293.84585947983402</v>
+        <v>314.03962853354523</v>
       </c>
       <c r="AF17">
-        <v>294.09589892261499</v>
+        <v>313.81919364422993</v>
       </c>
       <c r="AG17">
-        <v>295.11868063575798</v>
+        <v>313.67545173227802</v>
       </c>
       <c r="AH17">
-        <v>295.49053185748102</v>
+        <v>313.63800269013319</v>
       </c>
       <c r="AI17">
-        <v>296.36685128347699</v>
+        <v>313.61481713311082</v>
       </c>
       <c r="AJ17">
-        <v>296.57827048587302</v>
+        <v>313.63894028646979</v>
       </c>
       <c r="AK17">
-        <v>297.61562666972401</v>
+        <v>313.76823805739161</v>
       </c>
       <c r="AL17">
-        <v>298.73385125359198</v>
+        <v>313.99473719374708</v>
       </c>
       <c r="AM17">
-        <v>298.69918887254198</v>
+        <v>314.01168097553119</v>
       </c>
       <c r="AN17">
-        <v>299.48022891622901</v>
+        <v>314.10042288402173</v>
       </c>
       <c r="AO17">
-        <v>299.58227132131799</v>
+        <v>314.27500302878121</v>
       </c>
       <c r="AP17">
-        <v>300.462957803032</v>
+        <v>314.49957053448128</v>
       </c>
       <c r="AQ17">
-        <v>300.57698288786003</v>
+        <v>314.24368766036622</v>
       </c>
       <c r="AR17">
-        <v>299.97982404121399</v>
+        <v>314.0470716382373</v>
       </c>
       <c r="AS17">
-        <v>300.17107474528501</v>
+        <v>313.90526484059939</v>
       </c>
       <c r="AT17">
-        <v>300.38652281002402</v>
-      </c>
-    </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.2">
+        <v>313.81836568920642</v>
+      </c>
+      <c r="AU17">
+        <v>313.40886978539112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:47" x14ac:dyDescent="0.2">
       <c r="E19" s="95"/>
       <c r="F19" s="95"/>
       <c r="L19" s="95"/>
@@ -23724,7 +23763,7 @@
       <c r="Z19" s="95"/>
       <c r="AB19" s="95"/>
     </row>
-    <row r="20" spans="1:46" ht="19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" s="110" t="s">
         <v>184</v>
       </c>
@@ -23745,7 +23784,7 @@
       <c r="Z20" s="95"/>
       <c r="AB20" s="95"/>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>184</v>
       </c>
@@ -23791,63 +23830,63 @@
       </c>
       <c r="N21" s="104">
         <f>M21*(1+N23)</f>
-        <v>219.36545765829101</v>
+        <v>222.38398180893643</v>
       </c>
       <c r="O21" s="149">
         <f t="shared" ref="O21:AA21" si="0">N21*(1+O23)</f>
-        <v>217.11374553225801</v>
+        <v>219.97510963898975</v>
       </c>
       <c r="P21" s="104">
         <f t="shared" si="0"/>
-        <v>214.86203340622495</v>
+        <v>217.56623746904302</v>
       </c>
       <c r="Q21" s="104">
         <f t="shared" si="0"/>
-        <v>212.61032128019067</v>
+        <v>215.15736529909634</v>
       </c>
       <c r="R21" s="104">
         <f t="shared" si="0"/>
-        <v>210.35860915415765</v>
+        <v>212.74849312914972</v>
       </c>
       <c r="S21" s="149">
         <f t="shared" si="0"/>
-        <v>212.72903381357398</v>
+        <v>214.00672523264191</v>
       </c>
       <c r="T21" s="104">
         <f t="shared" si="0"/>
-        <v>215.09945847299031</v>
+        <v>215.26495733613436</v>
       </c>
       <c r="U21" s="104">
         <f t="shared" si="0"/>
-        <v>217.46988313240539</v>
+        <v>216.5231894396268</v>
       </c>
       <c r="V21" s="104">
         <f t="shared" si="0"/>
-        <v>219.84030779182174</v>
+        <v>217.78142154311925</v>
       </c>
       <c r="W21" s="149">
         <f t="shared" si="0"/>
-        <v>222.84308659056381</v>
+        <v>221.01783327030444</v>
       </c>
       <c r="X21" s="104">
         <f t="shared" si="0"/>
-        <v>225.84586538930591</v>
+        <v>224.25424499748959</v>
       </c>
       <c r="Y21" s="104">
         <f t="shared" si="0"/>
-        <v>228.84864418804926</v>
+        <v>227.49065672467492</v>
       </c>
       <c r="Z21" s="104">
         <f t="shared" si="0"/>
-        <v>231.85142298679131</v>
+        <v>230.72706845186019</v>
       </c>
       <c r="AA21" s="149">
         <f t="shared" si="0"/>
-        <v>234.97610265911464</v>
+        <v>233.9500717241782</v>
       </c>
       <c r="AB21" s="95"/>
     </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>177</v>
       </c>
@@ -23869,87 +23908,87 @@
       </c>
       <c r="H22" s="104">
         <f t="shared" si="1"/>
-        <v>167.34017428738599</v>
+        <v>165.59009035050261</v>
       </c>
       <c r="I22" s="104">
         <f t="shared" si="1"/>
-        <v>173.273348574773</v>
+        <v>169.77318070100509</v>
       </c>
       <c r="J22" s="104">
         <f t="shared" si="1"/>
-        <v>179.20652286215901</v>
+        <v>173.95627105150791</v>
       </c>
       <c r="K22" s="149">
         <f t="shared" si="1"/>
-        <v>177.42276079295601</v>
+        <v>174.54654357698769</v>
       </c>
       <c r="L22" s="104">
         <f t="shared" si="1"/>
-        <v>175.63899872375401</v>
+        <v>175.13681610246749</v>
       </c>
       <c r="M22" s="223">
         <f t="shared" si="1"/>
-        <v>173.85523665455199</v>
+        <v>175.72708862794721</v>
       </c>
       <c r="N22" s="104">
         <f t="shared" si="1"/>
-        <v>172.07147458534899</v>
+        <v>176.31736115342699</v>
       </c>
       <c r="O22" s="149">
         <f t="shared" si="1"/>
-        <v>170.30521917757301</v>
+        <v>174.4074844576952</v>
       </c>
       <c r="P22" s="104">
         <f t="shared" si="1"/>
-        <v>168.53896376979699</v>
+        <v>172.49760776196339</v>
       </c>
       <c r="Q22" s="104">
         <f t="shared" si="1"/>
-        <v>166.77270836202001</v>
+        <v>170.58773106623161</v>
       </c>
       <c r="R22" s="104">
         <f t="shared" si="1"/>
-        <v>165.006452954244</v>
+        <v>168.67785437049989</v>
       </c>
       <c r="S22" s="149">
         <f t="shared" si="1"/>
-        <v>166.865827127796</v>
+        <v>169.67544494515229</v>
       </c>
       <c r="T22" s="104">
         <f t="shared" si="1"/>
-        <v>168.72520130134799</v>
+        <v>170.6730355198049</v>
       </c>
       <c r="U22" s="104">
         <f t="shared" si="1"/>
-        <v>170.584575474899</v>
+        <v>171.6706260944575</v>
       </c>
       <c r="V22" s="104">
         <f t="shared" si="1"/>
-        <v>172.443949648451</v>
+        <v>172.66821666911011</v>
       </c>
       <c r="W22" s="149">
         <f t="shared" si="1"/>
-        <v>174.79934589574</v>
+        <v>175.2342089258436</v>
       </c>
       <c r="X22" s="104">
         <f t="shared" si="1"/>
-        <v>177.15474214302901</v>
+        <v>177.8002011825771</v>
       </c>
       <c r="Y22" s="104">
         <f t="shared" si="1"/>
-        <v>179.51013839031901</v>
+        <v>180.36619343931071</v>
       </c>
       <c r="Z22" s="104">
         <f t="shared" si="1"/>
-        <v>181.86553463760799</v>
+        <v>182.93218569604429</v>
       </c>
       <c r="AA22" s="149">
         <f t="shared" si="1"/>
-        <v>184.316550602305</v>
+        <v>185.48754704600071</v>
       </c>
       <c r="AB22" s="95"/>
     </row>
-    <row r="23" spans="1:46" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:47" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B23" s="210" t="s">
         <v>278</v>
       </c>
@@ -23965,63 +24004,63 @@
       <c r="M23" s="230"/>
       <c r="N23" s="230">
         <f t="shared" ref="N23" si="2">(N22/M22)-1</f>
-        <v>-1.0260042225517241E-2</v>
+        <v>3.3590297892518439E-3</v>
       </c>
       <c r="O23" s="246">
         <f t="shared" ref="O23" si="3">(O22/N22)-1</f>
-        <v>-1.0264661310262158E-2</v>
+        <v>-1.0832039926402137E-2</v>
       </c>
       <c r="P23" s="230">
         <f t="shared" ref="P23" si="4">(P22/O22)-1</f>
-        <v>-1.0371117316929634E-2</v>
+        <v>-1.0950657889885917E-2</v>
       </c>
       <c r="Q23" s="230">
         <f t="shared" ref="Q23" si="5">(Q22/P22)-1</f>
-        <v>-1.0479804599899278E-2</v>
+        <v>-1.1071902506423759E-2</v>
       </c>
       <c r="R23" s="230">
         <f t="shared" ref="R23" si="6">(R22/Q22)-1</f>
-        <v>-1.0590794052117491E-2</v>
+        <v>-1.1195861998951173E-2</v>
       </c>
       <c r="S23" s="246">
         <f t="shared" ref="S23" si="7">(S22/R22)-1</f>
-        <v>1.1268493687744519E-2</v>
+        <v>5.9141763355681221E-3</v>
       </c>
       <c r="T23" s="230">
         <f t="shared" ref="T23" si="8">(T22/S22)-1</f>
-        <v>1.1142929655261202E-2</v>
+        <v>5.8794045006045348E-3</v>
       </c>
       <c r="U23" s="230">
         <f t="shared" ref="U23" si="9">(U22/T22)-1</f>
-        <v>1.1020133087469963E-2</v>
+        <v>5.8450391511133404E-3</v>
       </c>
       <c r="V23" s="230">
         <f t="shared" ref="V23" si="10">(V22/U22)-1</f>
-        <v>1.0900013488180926E-2</v>
+        <v>5.8110732007450316E-3</v>
       </c>
       <c r="W23" s="246">
         <f t="shared" ref="W23" si="11">(W22/V22)-1</f>
-        <v>1.3658909182321377E-2</v>
+        <v>1.4860825612456496E-2</v>
       </c>
       <c r="X23" s="230">
         <f t="shared" ref="X23" si="12">(X22/W22)-1</f>
-        <v>1.3474857329808909E-2</v>
+        <v>1.4643215342840854E-2</v>
       </c>
       <c r="Y23" s="230">
         <f t="shared" ref="Y23" si="13">(Y22/X22)-1</f>
-        <v>1.329569967361266E-2</v>
+        <v>1.4431886126488047E-2</v>
       </c>
       <c r="Z23" s="230">
         <f t="shared" ref="Z23" si="14">(Z22/Y22)-1</f>
-        <v>1.3121243559890194E-2</v>
+        <v>1.4226569889866703E-2</v>
       </c>
       <c r="AA23" s="246">
         <f t="shared" ref="AA23" si="15">(AA22/Z22)-1</f>
-        <v>1.3477077828853101E-2</v>
+        <v>1.3968899678498126E-2</v>
       </c>
       <c r="AB23" s="243"/>
     </row>
-    <row r="24" spans="1:46" s="97" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:47" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="99" t="s">
         <v>178</v>
       </c>
@@ -24037,87 +24076,87 @@
       </c>
       <c r="H24" s="217">
         <f t="shared" ref="H24" si="18">H21-H22</f>
-        <v>12.741909847256096</v>
+        <v>14.491993784139481</v>
       </c>
       <c r="I24" s="217">
         <f t="shared" ref="I24" si="19">I21-I22</f>
-        <v>6.808735559869092</v>
+        <v>10.308903433636999</v>
       </c>
       <c r="J24" s="217">
         <f t="shared" ref="J24" si="20">J21-J22</f>
-        <v>0.87556127248308258</v>
+        <v>6.1258130831341759</v>
       </c>
       <c r="K24" s="150">
         <f t="shared" ref="K24:AA24" si="21">K21-K22</f>
-        <v>2.6593233416860755</v>
+        <v>5.5355405576544001</v>
       </c>
       <c r="L24" s="217">
         <f t="shared" si="21"/>
-        <v>46.000489441959246</v>
+        <v>46.502672063245768</v>
       </c>
       <c r="M24" s="239">
         <f t="shared" si="21"/>
-        <v>47.784251511161273</v>
+        <v>45.912399537766049</v>
       </c>
       <c r="N24" s="217">
         <f t="shared" si="21"/>
-        <v>47.293983072942012</v>
+        <v>46.066620655509439</v>
       </c>
       <c r="O24" s="150">
         <f t="shared" si="21"/>
-        <v>46.808526354685</v>
+        <v>45.567625181294545</v>
       </c>
       <c r="P24" s="217">
         <f t="shared" si="21"/>
-        <v>46.323069636427959</v>
+        <v>45.068629707079623</v>
       </c>
       <c r="Q24" s="217">
         <f t="shared" si="21"/>
-        <v>45.837612918170663</v>
+        <v>44.569634232864729</v>
       </c>
       <c r="R24" s="217">
         <f t="shared" si="21"/>
-        <v>45.352156199913651</v>
+        <v>44.070638758649835</v>
       </c>
       <c r="S24" s="150">
         <f t="shared" si="21"/>
-        <v>45.863206685777982</v>
+        <v>44.331280287489619</v>
       </c>
       <c r="T24" s="217">
         <f t="shared" si="21"/>
-        <v>46.374257171642313</v>
+        <v>44.59192181632946</v>
       </c>
       <c r="U24" s="217">
         <f t="shared" si="21"/>
-        <v>46.885307657506388</v>
+        <v>44.852563345169301</v>
       </c>
       <c r="V24" s="217">
         <f t="shared" si="21"/>
-        <v>47.396358143370747</v>
+        <v>45.113204874009142</v>
       </c>
       <c r="W24" s="150">
         <f t="shared" si="21"/>
-        <v>48.043740694823811</v>
+        <v>45.783624344460833</v>
       </c>
       <c r="X24" s="217">
         <f t="shared" si="21"/>
-        <v>48.691123246276902</v>
+        <v>46.454043814912495</v>
       </c>
       <c r="Y24" s="217">
         <f t="shared" si="21"/>
-        <v>49.338505797730249</v>
+        <v>47.124463285364214</v>
       </c>
       <c r="Z24" s="217">
         <f t="shared" si="21"/>
-        <v>49.985888349183313</v>
+        <v>47.794882755815905</v>
       </c>
       <c r="AA24" s="150">
         <f t="shared" si="21"/>
-        <v>50.659552056809645</v>
+        <v>48.462524678177488</v>
       </c>
       <c r="AB24" s="244"/>
     </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.2">
       <c r="D25" s="102"/>
       <c r="E25" s="104"/>
       <c r="F25" s="104"/>
@@ -24140,7 +24179,7 @@
       <c r="Z25" s="95"/>
       <c r="AB25" s="95"/>
     </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.2">
       <c r="D26" s="102"/>
       <c r="E26" s="104"/>
       <c r="F26" s="104"/>
@@ -24163,7 +24202,7 @@
       <c r="Z26" s="95"/>
       <c r="AB26" s="95"/>
     </row>
-    <row r="27" spans="1:46" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="110" t="s">
         <v>187</v>
       </c>
@@ -24190,7 +24229,7 @@
       <c r="Z27" s="95"/>
       <c r="AB27" s="95"/>
     </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>187</v>
       </c>
@@ -24289,7 +24328,7 @@
       </c>
       <c r="AB28" s="95"/>
     </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>177</v>
       </c>
@@ -24391,7 +24430,7 @@
       </c>
       <c r="AB29" s="95"/>
     </row>
-    <row r="30" spans="1:46" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:47" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B30" s="210" t="s">
         <v>278</v>
       </c>
@@ -24466,7 +24505,7 @@
       </c>
       <c r="AB30" s="243"/>
     </row>
-    <row r="31" spans="1:46" s="97" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:47" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="99" t="s">
         <v>178</v>
       </c>
@@ -24562,7 +24601,7 @@
       </c>
       <c r="AB31" s="244"/>
     </row>
-    <row r="32" spans="1:46" s="97" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:47" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="99"/>
       <c r="D32" s="103"/>
       <c r="E32" s="217"/>
@@ -25178,71 +25217,71 @@
       </c>
       <c r="K47" s="149">
         <f>J47*(1+K49)</f>
-        <v>1478.7088241795318</v>
+        <v>1472.4838694599159</v>
       </c>
       <c r="L47" s="104">
         <f t="shared" ref="L47:AA47" si="50">K47*(1+L49)</f>
-        <v>1515.8341675168599</v>
+        <v>1503.3842580776295</v>
       </c>
       <c r="M47" s="104">
         <f t="shared" si="50"/>
-        <v>1552.9595108541773</v>
+        <v>1534.2846466953417</v>
       </c>
       <c r="N47" s="104">
         <f t="shared" si="50"/>
-        <v>1590.0848541915052</v>
+        <v>1565.1850353130551</v>
       </c>
       <c r="O47" s="149">
         <f t="shared" si="50"/>
-        <v>1594.7415058452814</v>
+        <v>1577.9212081553392</v>
       </c>
       <c r="P47" s="104">
         <f t="shared" si="50"/>
-        <v>1599.3981574990676</v>
+        <v>1590.6573809976228</v>
       </c>
       <c r="Q47" s="104">
         <f t="shared" si="50"/>
-        <v>1604.0548091528433</v>
+        <v>1603.3935538399071</v>
       </c>
       <c r="R47" s="104">
         <f t="shared" si="50"/>
-        <v>1608.711460806619</v>
+        <v>1616.1297266821898</v>
       </c>
       <c r="S47" s="149">
         <f t="shared" si="50"/>
-        <v>1620.9191500527331</v>
+        <v>1627.0642612135953</v>
       </c>
       <c r="T47" s="104">
         <f t="shared" si="50"/>
-        <v>1633.126839298837</v>
+        <v>1637.9987957449996</v>
       </c>
       <c r="U47" s="104">
         <f t="shared" si="50"/>
-        <v>1645.3345285449511</v>
+        <v>1648.9333302764039</v>
       </c>
       <c r="V47" s="104">
         <f t="shared" si="50"/>
-        <v>1657.5422177910655</v>
+        <v>1659.8678648078082</v>
       </c>
       <c r="W47" s="149">
         <f t="shared" si="50"/>
-        <v>1697.2541986532933</v>
+        <v>1700.4813043393915</v>
       </c>
       <c r="X47" s="104">
         <f t="shared" si="50"/>
-        <v>1736.9661795155312</v>
+        <v>1741.0947438709736</v>
       </c>
       <c r="Y47" s="104">
         <f t="shared" si="50"/>
-        <v>1776.6781603777692</v>
+        <v>1781.7081834025557</v>
       </c>
       <c r="Z47" s="104">
         <f t="shared" si="50"/>
-        <v>1816.3901412400076</v>
+        <v>1822.3216229341388</v>
       </c>
       <c r="AA47" s="149">
         <f t="shared" si="50"/>
-        <v>1846.0018042825452</v>
+        <v>1852.6998677107395</v>
       </c>
       <c r="AB47" s="95"/>
     </row>
@@ -25268,83 +25307,83 @@
       </c>
       <c r="H48" s="104">
         <f t="shared" si="51"/>
-        <v>1378.3579870429701</v>
+        <v>1365.228724966064</v>
       </c>
       <c r="I48" s="104">
         <f t="shared" si="51"/>
-        <v>1383.92297408593</v>
+        <v>1357.664449932128</v>
       </c>
       <c r="J48" s="223">
         <f t="shared" si="51"/>
-        <v>1389.4879611289</v>
+        <v>1350.1001748981921</v>
       </c>
       <c r="K48" s="149">
         <f t="shared" si="51"/>
-        <v>1425.27167973107</v>
+        <v>1379.0396158890269</v>
       </c>
       <c r="L48" s="104">
         <f t="shared" si="51"/>
-        <v>1461.05539833324</v>
+        <v>1407.979056879863</v>
       </c>
       <c r="M48" s="104">
         <f t="shared" si="51"/>
-        <v>1496.8391169353999</v>
+        <v>1436.918497870698</v>
       </c>
       <c r="N48" s="104">
         <f t="shared" si="51"/>
-        <v>1532.6228355375699</v>
+        <v>1465.857938861534</v>
       </c>
       <c r="O48" s="149">
         <f t="shared" si="51"/>
-        <v>1537.1112064838801</v>
+        <v>1477.7858704800731</v>
       </c>
       <c r="P48" s="104">
         <f t="shared" si="51"/>
-        <v>1541.5995774302</v>
+        <v>1489.7138020986119</v>
       </c>
       <c r="Q48" s="104">
         <f t="shared" si="51"/>
-        <v>1546.08794837651</v>
+        <v>1501.6417337171511</v>
       </c>
       <c r="R48" s="104">
         <f t="shared" si="51"/>
-        <v>1550.5763193228199</v>
+        <v>1513.569665335689</v>
       </c>
       <c r="S48" s="149">
         <f t="shared" si="51"/>
-        <v>1562.34285068649</v>
+        <v>1523.810291133271</v>
       </c>
       <c r="T48" s="104">
         <f t="shared" si="51"/>
-        <v>1574.1093820501501</v>
+        <v>1534.0509169308521</v>
       </c>
       <c r="U48" s="104">
         <f t="shared" si="51"/>
-        <v>1585.8759134138199</v>
+        <v>1544.2915427284329</v>
       </c>
       <c r="V48" s="104">
         <f t="shared" si="51"/>
-        <v>1597.64244477749</v>
+        <v>1554.5321685260139</v>
       </c>
       <c r="W48" s="149">
         <f t="shared" si="51"/>
-        <v>1635.9193257586801</v>
+        <v>1592.5682674016571</v>
       </c>
       <c r="X48" s="104">
         <f t="shared" si="51"/>
-        <v>1674.1962067398799</v>
+        <v>1630.6043662772991</v>
       </c>
       <c r="Y48" s="104">
         <f t="shared" si="51"/>
-        <v>1712.47308772108</v>
+        <v>1668.640465152941</v>
       </c>
       <c r="Z48" s="104">
         <f t="shared" si="51"/>
-        <v>1750.7499687022801</v>
+        <v>1706.6765640285839</v>
       </c>
       <c r="AA48" s="149">
         <f t="shared" si="51"/>
-        <v>1779.2915341776099</v>
+        <v>1735.126996577955</v>
       </c>
       <c r="AB48" s="95"/>
     </row>
@@ -25361,71 +25400,71 @@
       <c r="J49" s="242"/>
       <c r="K49" s="246">
         <f t="shared" ref="K49" si="52">(K48/J48)-1</f>
-        <v>2.5753169227243466E-2</v>
+        <v>2.1435032398997356E-2</v>
       </c>
       <c r="L49" s="230">
         <f t="shared" ref="L49" si="53">(L48/K48)-1</f>
-        <v>2.5106594841568741E-2</v>
+        <v>2.0985213664206359E-2</v>
       </c>
       <c r="M49" s="230">
         <f t="shared" ref="M49" si="54">(M48/L48)-1</f>
-        <v>2.4491691857120301E-2</v>
+        <v>2.0553885975382213E-2</v>
       </c>
       <c r="N49" s="230">
         <f t="shared" ref="N49" si="55">(N48/M48)-1</f>
-        <v>2.3906188846422483E-2</v>
+        <v>2.0139932107297698E-2</v>
       </c>
       <c r="O49" s="246">
         <f t="shared" ref="O49" si="56">(O48/N48)-1</f>
-        <v>2.9285554424980376E-3</v>
+        <v>8.1371675264814147E-3</v>
       </c>
       <c r="P49" s="230">
         <f t="shared" ref="P49" si="57">(P48/O48)-1</f>
-        <v>2.9200040487551426E-3</v>
+        <v>8.071488472591648E-3</v>
       </c>
       <c r="Q49" s="230">
         <f t="shared" ref="Q49" si="58">(Q48/P48)-1</f>
-        <v>2.9115024498072017E-3</v>
+        <v>8.0068611848369553E-3</v>
       </c>
       <c r="R49" s="230">
         <f t="shared" ref="R49" si="59">(R48/Q48)-1</f>
-        <v>2.9030502120030999E-3</v>
+        <v>7.9432605998579486E-3</v>
       </c>
       <c r="S49" s="246">
         <f t="shared" ref="S49" si="60">(S48/R48)-1</f>
-        <v>7.5884890134325644E-3</v>
+        <v>6.7658767429847888E-3</v>
       </c>
       <c r="T49" s="230">
         <f t="shared" ref="T49" si="61">(T48/S48)-1</f>
-        <v>7.5313375412380257E-3</v>
+        <v>6.7204072955597827E-3</v>
       </c>
       <c r="U49" s="230">
         <f t="shared" ref="U49" si="62">(U48/T48)-1</f>
-        <v>7.475040488193363E-3</v>
+        <v>6.6755449148123702E-3</v>
       </c>
       <c r="V49" s="230">
         <f t="shared" ref="V49" si="63">(V48/U48)-1</f>
-        <v>7.4195788359892045E-3</v>
+        <v>6.6312775238592803E-3</v>
       </c>
       <c r="W49" s="246">
         <f t="shared" ref="W49" si="64">(W48/V48)-1</f>
-        <v>2.3958352575266684E-2</v>
+        <v>2.4467875059612565E-2</v>
       </c>
       <c r="X49" s="230">
         <f t="shared" ref="X49" si="65">(X48/W48)-1</f>
-        <v>2.33977803052412E-2</v>
+        <v>2.3883496647650437E-2</v>
       </c>
       <c r="Y49" s="230">
         <f t="shared" ref="Y49" si="66">(Y48/X48)-1</f>
-        <v>2.2862840584100708E-2</v>
+        <v>2.3326381102780402E-2</v>
       </c>
       <c r="Z49" s="230">
         <f t="shared" ref="Z49" si="67">(Z48/Y48)-1</f>
-        <v>2.2351814609909093E-2</v>
+        <v>2.2794664081310367E-2</v>
       </c>
       <c r="AA49" s="246">
         <f t="shared" ref="AA49" si="68">(AA48/Z48)-1</f>
-        <v>1.6302479500534206E-2</v>
+        <v>1.667007864818526E-2</v>
       </c>
       <c r="AB49" s="243"/>
     </row>
@@ -25445,83 +25484,83 @@
       </c>
       <c r="H50" s="217">
         <f t="shared" ref="H50" si="71">H47-H48</f>
-        <v>12.2521755476821</v>
+        <v>25.381437624588216</v>
       </c>
       <c r="I50" s="217">
         <f t="shared" ref="I50" si="72">I47-I48</f>
-        <v>34.566184893034006</v>
+        <v>60.824709046836006</v>
       </c>
       <c r="J50" s="239">
         <f t="shared" ref="J50" si="73">J47-J48</f>
-        <v>52.095519713303929</v>
+        <v>91.483305944011818</v>
       </c>
       <c r="K50" s="150">
         <f t="shared" ref="K50:AA50" si="74">K47-K48</f>
-        <v>53.437144448461822</v>
+        <v>93.444253570889032</v>
       </c>
       <c r="L50" s="217">
         <f t="shared" si="74"/>
-        <v>54.778769183619943</v>
+        <v>95.405201197766473</v>
       </c>
       <c r="M50" s="217">
         <f t="shared" si="74"/>
-        <v>56.120393918777381</v>
+        <v>97.366148824643687</v>
       </c>
       <c r="N50" s="217">
         <f t="shared" si="74"/>
-        <v>57.462018653935274</v>
+        <v>99.327096451521129</v>
       </c>
       <c r="O50" s="150">
         <f t="shared" si="74"/>
-        <v>57.630299361401285</v>
+        <v>100.1353376752661</v>
       </c>
       <c r="P50" s="217">
         <f t="shared" si="74"/>
-        <v>57.798580068867523</v>
+        <v>100.94357889901084</v>
       </c>
       <c r="Q50" s="217">
         <f t="shared" si="74"/>
-        <v>57.966860776333306</v>
+        <v>101.75182012275604</v>
       </c>
       <c r="R50" s="217">
         <f t="shared" si="74"/>
-        <v>58.135141483799089</v>
+        <v>102.56006134650079</v>
       </c>
       <c r="S50" s="150">
         <f t="shared" si="74"/>
-        <v>58.57629936624312</v>
+        <v>103.25397008032428</v>
       </c>
       <c r="T50" s="217">
         <f t="shared" si="74"/>
-        <v>59.017457248686924</v>
+        <v>103.94787881414754</v>
       </c>
       <c r="U50" s="217">
         <f t="shared" si="74"/>
-        <v>59.458615131131182</v>
+        <v>104.64178754797103</v>
       </c>
       <c r="V50" s="217">
         <f t="shared" si="74"/>
-        <v>59.899773013575441</v>
+        <v>105.3356962817943</v>
       </c>
       <c r="W50" s="150">
         <f t="shared" si="74"/>
-        <v>61.334872894613227</v>
+        <v>107.91303693773443</v>
       </c>
       <c r="X50" s="217">
         <f t="shared" si="74"/>
-        <v>62.76997277565124</v>
+        <v>110.49037759367457</v>
       </c>
       <c r="Y50" s="217">
         <f t="shared" si="74"/>
-        <v>64.205072656689254</v>
+        <v>113.0677182496147</v>
       </c>
       <c r="Z50" s="217">
         <f t="shared" si="74"/>
-        <v>65.640172537727494</v>
+        <v>115.64505890555483</v>
       </c>
       <c r="AA50" s="150">
         <f t="shared" si="74"/>
-        <v>66.710270104935262</v>
+        <v>117.57287113278448</v>
       </c>
       <c r="AB50" s="244"/>
     </row>
@@ -26098,63 +26137,63 @@
       </c>
       <c r="M61" s="231">
         <f>L61*(1+M63)</f>
-        <v>77.668082321497437</v>
+        <v>77.703294275287249</v>
       </c>
       <c r="N61" s="231">
         <f>M61*(1+N63)</f>
-        <v>78.01023073537182</v>
+        <v>78.07050365575769</v>
       </c>
       <c r="O61" s="247">
         <f>N61*(1+O63)</f>
-        <v>78.35669524162293</v>
+        <v>78.435379078301409</v>
       </c>
       <c r="P61" s="231">
         <f>O61*(1+P63)</f>
-        <v>78.708260584319447</v>
+        <v>78.799476514869554</v>
       </c>
       <c r="Q61" s="231">
         <f t="shared" ref="Q61:AA61" si="100">P61*(1+Q63)</f>
-        <v>79.061395415153044</v>
+        <v>79.164740930401067</v>
       </c>
       <c r="R61" s="231">
         <f t="shared" si="100"/>
-        <v>79.419631082431948</v>
+        <v>79.533506282822628</v>
       </c>
       <c r="S61" s="247">
         <f t="shared" si="100"/>
-        <v>79.782967586156261</v>
+        <v>79.905772572134296</v>
       </c>
       <c r="T61" s="231">
         <f t="shared" si="100"/>
-        <v>80.150227810223058</v>
+        <v>80.280372819372687</v>
       </c>
       <c r="U61" s="231">
         <f t="shared" si="100"/>
-        <v>80.518272778358593</v>
+        <v>80.654195080635475</v>
       </c>
       <c r="V61" s="231">
         <f t="shared" si="100"/>
-        <v>80.888279606665293</v>
+        <v>81.029184320861646</v>
       </c>
       <c r="W61" s="247">
         <f t="shared" si="100"/>
-        <v>81.260248295143285</v>
+        <v>81.404951547063376</v>
       </c>
       <c r="X61" s="231">
         <f t="shared" si="100"/>
-        <v>81.633001727689759</v>
+        <v>81.780329780277327</v>
       </c>
       <c r="Y61" s="231">
         <f t="shared" si="100"/>
-        <v>82.003793300065055</v>
+        <v>82.151040097637846</v>
       </c>
       <c r="Z61" s="231">
         <f t="shared" si="100"/>
-        <v>82.374977244474579</v>
+        <v>82.519027464083834</v>
       </c>
       <c r="AA61" s="247">
         <f t="shared" si="100"/>
-        <v>82.746161188883974</v>
+        <v>82.884291879615333</v>
       </c>
       <c r="AB61" s="95"/>
     </row>
@@ -26180,83 +26219,83 @@
       </c>
       <c r="H62" s="104">
         <f t="shared" si="101"/>
-        <v>611.96656992985299</v>
+        <v>612.6833822665883</v>
       </c>
       <c r="I62" s="104">
         <f t="shared" si="101"/>
-        <v>614.17827301508498</v>
+        <v>615.55472695243679</v>
       </c>
       <c r="J62" s="104">
         <f t="shared" si="101"/>
-        <v>616.56665994164803</v>
+        <v>618.4920434527304</v>
       </c>
       <c r="K62" s="149">
         <f t="shared" si="101"/>
-        <v>619.14119591532699</v>
+        <v>621.4890487375219</v>
       </c>
       <c r="L62" s="223">
         <f t="shared" si="101"/>
-        <v>621.81353901545697</v>
+        <v>624.52061068702278</v>
       </c>
       <c r="M62" s="104">
         <f t="shared" si="101"/>
-        <v>624.53005307592002</v>
+        <v>627.53332354668225</v>
       </c>
       <c r="N62" s="104">
         <f t="shared" si="101"/>
-        <v>627.28127289093095</v>
+        <v>630.49891368173814</v>
       </c>
       <c r="O62" s="149">
         <f t="shared" si="101"/>
-        <v>630.06719846048804</v>
+        <v>633.44565472695251</v>
       </c>
       <c r="P62" s="104">
         <f t="shared" si="101"/>
-        <v>632.89413992178299</v>
+        <v>636.38611274221967</v>
       </c>
       <c r="Q62" s="104">
         <f t="shared" si="101"/>
-        <v>635.73370165745905</v>
+        <v>639.3359953024077</v>
       </c>
       <c r="R62" s="104">
         <f t="shared" si="101"/>
-        <v>638.61427928487205</v>
+        <v>642.31415149735767</v>
       </c>
       <c r="S62" s="149">
         <f t="shared" si="101"/>
-        <v>641.53587280402303</v>
+        <v>645.32058132706993</v>
       </c>
       <c r="T62" s="104">
         <f t="shared" si="101"/>
-        <v>644.48901700912495</v>
+        <v>648.34586024662372</v>
       </c>
       <c r="U62" s="104">
         <f t="shared" si="101"/>
-        <v>647.44847135141902</v>
+        <v>651.36485613623017</v>
       </c>
       <c r="V62" s="104">
         <f t="shared" si="101"/>
-        <v>650.42370103668804</v>
+        <v>654.39327657075751</v>
       </c>
       <c r="W62" s="149">
         <f t="shared" si="101"/>
-        <v>653.41470606493294</v>
+        <v>657.42798003523194</v>
       </c>
       <c r="X62" s="104">
         <f t="shared" si="101"/>
-        <v>656.41202123036805</v>
+        <v>660.45954198473294</v>
       </c>
       <c r="Y62" s="104">
         <f t="shared" si="101"/>
-        <v>659.39356105282798</v>
+        <v>663.45340575455089</v>
       </c>
       <c r="Z62" s="104">
         <f t="shared" si="101"/>
-        <v>662.378255943883</v>
+        <v>666.42527891955376</v>
       </c>
       <c r="AA62" s="149">
         <f t="shared" si="101"/>
-        <v>665.36295083493701</v>
+        <v>669.37516147974168</v>
       </c>
       <c r="AB62" s="95"/>
     </row>
@@ -26275,63 +26314,63 @@
       <c r="L63" s="230"/>
       <c r="M63" s="230">
         <f t="shared" ref="M63:AA63" si="102">(M62/L62)-1</f>
-        <v>4.3686955815793738E-3</v>
+        <v>4.8240407251656237E-3</v>
       </c>
       <c r="N63" s="230">
         <f t="shared" si="102"/>
-        <v>4.4052640885106076E-3</v>
+        <v>4.7257890916374556E-3</v>
       </c>
       <c r="O63" s="246">
         <f t="shared" si="102"/>
-        <v>4.4412701127163334E-3</v>
+        <v>4.6736655389414405E-3</v>
       </c>
       <c r="P63" s="230">
         <f t="shared" si="102"/>
-        <v>4.4867300951427769E-3</v>
+        <v>4.6420051875399881E-3</v>
       </c>
       <c r="Q63" s="230">
         <f t="shared" si="102"/>
-        <v>4.4866298430681351E-3</v>
+        <v>4.6353660162017363E-3</v>
       </c>
       <c r="R63" s="230">
         <f t="shared" si="102"/>
-        <v>4.5311073172664695E-3</v>
+        <v>4.6582019733478752E-3</v>
       </c>
       <c r="S63" s="246">
         <f t="shared" si="102"/>
-        <v>4.574895385086819E-3</v>
+        <v>4.6806221265773829E-3</v>
       </c>
       <c r="T63" s="230">
         <f t="shared" si="102"/>
-        <v>4.6032409570400112E-3</v>
+        <v>4.6880248470186903E-3</v>
       </c>
       <c r="U63" s="230">
         <f t="shared" si="102"/>
-        <v>4.5919391396738174E-3</v>
+        <v>4.6564589592013039E-3</v>
       </c>
       <c r="V63" s="230">
         <f t="shared" si="102"/>
-        <v>4.5953150202961979E-3</v>
+        <v>4.6493457637419855E-3</v>
       </c>
       <c r="W63" s="246">
         <f t="shared" si="102"/>
-        <v>4.5985486437190026E-3</v>
+        <v>4.6374306905738738E-3</v>
       </c>
       <c r="X63" s="230">
         <f t="shared" si="102"/>
-        <v>4.5871559633021697E-3</v>
+        <v>4.6112457053295586E-3</v>
       </c>
       <c r="Y63" s="230">
         <f t="shared" si="102"/>
-        <v>4.5421773612119853E-3</v>
+        <v>4.5330010083906025E-3</v>
       </c>
       <c r="Z63" s="230">
         <f t="shared" si="102"/>
-        <v>4.5264240771314412E-3</v>
+        <v>4.4793999687482433E-3</v>
       </c>
       <c r="AA63" s="246">
         <f t="shared" si="102"/>
-        <v>4.5060278840234336E-3</v>
+        <v>4.4264265679874182E-3</v>
       </c>
       <c r="AB63" s="243"/>
     </row>
@@ -26351,83 +26390,83 @@
       </c>
       <c r="H64" s="217">
         <f t="shared" si="103"/>
-        <v>182.11701340348043</v>
+        <v>181.40020106674513</v>
       </c>
       <c r="I64" s="217">
         <f t="shared" si="103"/>
-        <v>179.90531031824844</v>
+        <v>178.52885638089663</v>
       </c>
       <c r="J64" s="217">
         <f t="shared" si="103"/>
-        <v>-472.48307660831472</v>
+        <v>-474.40846011939709</v>
       </c>
       <c r="K64" s="150">
         <f t="shared" si="103"/>
-        <v>-496.39094591532699</v>
+        <v>-498.7387987375219</v>
       </c>
       <c r="L64" s="217">
         <f t="shared" si="103"/>
-        <v>-544.48328901545699</v>
+        <v>-547.1903606870228</v>
       </c>
       <c r="M64" s="217">
         <f t="shared" si="103"/>
-        <v>-546.8619707544226</v>
+        <v>-549.83002927139501</v>
       </c>
       <c r="N64" s="217">
         <f t="shared" si="103"/>
-        <v>-549.27104215555914</v>
+        <v>-552.4284100259805</v>
       </c>
       <c r="O64" s="150">
         <f t="shared" si="103"/>
-        <v>-551.71050321886514</v>
+        <v>-555.01027564865115</v>
       </c>
       <c r="P64" s="217">
         <f t="shared" si="103"/>
-        <v>-554.18587933746358</v>
+        <v>-557.58663622735014</v>
       </c>
       <c r="Q64" s="217">
         <f t="shared" si="103"/>
-        <v>-556.67230624230604</v>
+        <v>-560.17125437200662</v>
       </c>
       <c r="R64" s="217">
         <f t="shared" si="103"/>
-        <v>-559.19464820244013</v>
+        <v>-562.78064521453507</v>
       </c>
       <c r="S64" s="150">
         <f t="shared" si="103"/>
-        <v>-561.75290521786678</v>
+        <v>-565.41480875493562</v>
       </c>
       <c r="T64" s="217">
         <f t="shared" si="103"/>
-        <v>-564.33878919890185</v>
+        <v>-568.06548742725101</v>
       </c>
       <c r="U64" s="217">
         <f t="shared" si="103"/>
-        <v>-566.93019857306047</v>
+        <v>-570.71066105559476</v>
       </c>
       <c r="V64" s="217">
         <f t="shared" si="103"/>
-        <v>-569.53542143002278</v>
+        <v>-573.36409224989586</v>
       </c>
       <c r="W64" s="150">
         <f t="shared" si="103"/>
-        <v>-572.1544577697897</v>
+        <v>-576.02302848816862</v>
       </c>
       <c r="X64" s="217">
         <f t="shared" si="103"/>
-        <v>-574.77901950267824</v>
+        <v>-578.67921220445555</v>
       </c>
       <c r="Y64" s="217">
         <f t="shared" si="103"/>
-        <v>-577.38976775276296</v>
+        <v>-581.30236565691303</v>
       </c>
       <c r="Z64" s="217">
         <f t="shared" si="103"/>
-        <v>-580.00327869940838</v>
+        <v>-583.90625145546994</v>
       </c>
       <c r="AA64" s="150">
         <f t="shared" si="103"/>
-        <v>-582.61678964605301</v>
+        <v>-586.4908696001263</v>
       </c>
       <c r="AB64" s="217"/>
       <c r="AC64" s="217"/>
@@ -26572,35 +26611,35 @@
       </c>
       <c r="T68" s="248">
         <f t="shared" ref="T68:AA68" si="104">S68*(1+T70)</f>
-        <v>332.75911815065967</v>
+        <v>336.23224086572151</v>
       </c>
       <c r="U68" s="248">
         <f t="shared" si="104"/>
-        <v>335.06610609259434</v>
+        <v>342.02665970336</v>
       </c>
       <c r="V68" s="248">
         <f t="shared" si="104"/>
-        <v>337.44074238468943</v>
+        <v>347.93543262645312</v>
       </c>
       <c r="W68" s="249">
         <f t="shared" si="104"/>
-        <v>338.03727181521128</v>
+        <v>348.35783973466744</v>
       </c>
       <c r="X68" s="248">
         <f t="shared" si="104"/>
-        <v>339.50150212231131</v>
+        <v>348.8226627396063</v>
       </c>
       <c r="Y68" s="248">
         <f t="shared" si="104"/>
-        <v>340.17633121853515</v>
+        <v>349.34176866674034</v>
       </c>
       <c r="Z68" s="248">
         <f t="shared" si="104"/>
-        <v>340.90032747813206</v>
+        <v>349.90680777318727</v>
       </c>
       <c r="AA68" s="249">
         <f t="shared" si="104"/>
-        <v>341.31283357783951</v>
+        <v>350.58752747539137</v>
       </c>
       <c r="AB68" s="95"/>
     </row>
@@ -26614,7 +26653,7 @@
       </c>
       <c r="E69" s="104">
         <f t="shared" si="105"/>
-        <v>252.25</v>
+        <v>279.25</v>
       </c>
       <c r="F69" s="104">
         <f t="shared" si="105"/>
@@ -26622,87 +26661,87 @@
       </c>
       <c r="G69" s="149">
         <f t="shared" si="105"/>
-        <v>225.90700000000001</v>
+        <v>303.95100000000002</v>
       </c>
       <c r="H69" s="104">
-        <f t="shared" si="105"/>
-        <v>210.041753543699</v>
+        <f>H17</f>
+        <v>257.15358627705501</v>
       </c>
       <c r="I69" s="104">
         <f t="shared" si="105"/>
-        <v>194.61359749402999</v>
+        <v>228.45877209582619</v>
       </c>
       <c r="J69" s="104">
         <f t="shared" si="105"/>
-        <v>179.76822865320401</v>
+        <v>212.05070141102621</v>
       </c>
       <c r="K69" s="149">
         <f t="shared" si="105"/>
-        <v>191.17307594225301</v>
+        <v>217.20219820767471</v>
       </c>
       <c r="L69" s="104">
         <f t="shared" si="105"/>
-        <v>203.37638597069</v>
+        <v>223.05909969580759</v>
       </c>
       <c r="M69" s="104">
         <f t="shared" si="105"/>
-        <v>215.66199298865499</v>
+        <v>228.5975776874576</v>
       </c>
       <c r="N69" s="104">
         <f t="shared" si="105"/>
-        <v>228.68219662636</v>
+        <v>234.17911675344899</v>
       </c>
       <c r="O69" s="149">
         <f t="shared" si="105"/>
-        <v>241.058465892621</v>
+        <v>247.8674048768593</v>
       </c>
       <c r="P69" s="231">
         <f t="shared" ref="P69:AA69" si="106">P17</f>
-        <v>254.184146750856</v>
+        <v>261.5571401329762</v>
       </c>
       <c r="Q69" s="231">
         <f t="shared" si="106"/>
-        <v>266.689343292064</v>
+        <v>275.39010761536798</v>
       </c>
       <c r="R69" s="231">
         <f t="shared" si="106"/>
-        <v>279.950983357084</v>
+        <v>289.36457004926609</v>
       </c>
       <c r="S69" s="245">
         <f t="shared" si="106"/>
-        <v>281.79554962604601</v>
+        <v>294.30374747872452</v>
       </c>
       <c r="T69" s="231">
         <f t="shared" si="106"/>
-        <v>283.71706522607298</v>
+        <v>299.40325070867152</v>
       </c>
       <c r="U69" s="231">
         <f t="shared" si="106"/>
-        <v>285.68404918742999</v>
+        <v>304.56298146943863</v>
       </c>
       <c r="V69" s="231">
         <f t="shared" si="106"/>
-        <v>287.70871148223603</v>
+        <v>309.82454061176958</v>
       </c>
       <c r="W69" s="247">
         <f t="shared" si="106"/>
-        <v>288.21732438002601</v>
+        <v>310.20067961913003</v>
       </c>
       <c r="X69" s="231">
         <f t="shared" si="106"/>
-        <v>289.46575636245899</v>
+        <v>310.61458852425028</v>
       </c>
       <c r="Y69" s="231">
         <f t="shared" si="106"/>
-        <v>290.04112911790401</v>
+        <v>311.07683450531948</v>
       </c>
       <c r="Z69" s="231">
         <f t="shared" si="106"/>
-        <v>290.65842277810202</v>
+        <v>311.57998240336798</v>
       </c>
       <c r="AA69" s="247">
         <f t="shared" si="106"/>
-        <v>291.010133711366</v>
+        <v>312.18613989479883</v>
       </c>
       <c r="AB69" s="95"/>
     </row>
@@ -26725,47 +26764,47 @@
       <c r="P70" s="230"/>
       <c r="Q70" s="230">
         <f t="shared" ref="Q70" si="107">(Q69/P69)-1</f>
-        <v>4.9197389770595068E-2</v>
+        <v>5.2886980930281879E-2</v>
       </c>
       <c r="R70" s="230">
         <f t="shared" ref="R70" si="108">(R69/Q69)-1</f>
-        <v>4.9726921598425289E-2</v>
+        <v>5.0744242612432489E-2</v>
       </c>
       <c r="S70" s="246">
         <f t="shared" ref="S70" si="109">(S69/R69)-1</f>
-        <v>6.5888901222725949E-3</v>
+        <v>1.7069046941778243E-2</v>
       </c>
       <c r="T70" s="230">
         <f t="shared" ref="T70" si="110">(T69/S69)-1</f>
-        <v>6.8188287663766278E-3</v>
+        <v>1.7327347251382408E-2</v>
       </c>
       <c r="U70" s="230">
         <f t="shared" ref="U70" si="111">(U69/T69)-1</f>
-        <v>6.9329067667807109E-3</v>
+        <v>1.723338256533391E-2</v>
       </c>
       <c r="V70" s="230">
         <f t="shared" ref="V70" si="112">(V69/U69)-1</f>
-        <v>7.0870680409520492E-3</v>
+        <v>1.7275767123585695E-2</v>
       </c>
       <c r="W70" s="246">
         <f t="shared" ref="W70" si="113">(W69/V69)-1</f>
-        <v>1.767804996830602E-3</v>
+        <v>1.2140387802004327E-3</v>
       </c>
       <c r="X70" s="230">
         <f t="shared" ref="X70" si="114">(X69/W69)-1</f>
-        <v>4.3315646799457763E-3</v>
+        <v>1.3343262356113605E-3</v>
       </c>
       <c r="Y70" s="230">
         <f t="shared" ref="Y70" si="115">(Y69/X69)-1</f>
-        <v>1.9877057745114612E-3</v>
+        <v>1.4881657145124905E-3</v>
       </c>
       <c r="Z70" s="230">
         <f t="shared" ref="Z70" si="116">(Z69/Y69)-1</f>
-        <v>2.1282969835187959E-3</v>
+        <v>1.6174393019288136E-3</v>
       </c>
       <c r="AA70" s="246">
         <f t="shared" ref="AA70" si="117">(AA69/Z69)-1</f>
-        <v>1.2100489980724216E-3</v>
+        <v>1.9454314322611133E-3</v>
       </c>
       <c r="AB70" s="243"/>
     </row>
@@ -26781,87 +26820,87 @@
       </c>
       <c r="G71" s="150">
         <f t="shared" ref="G71:K71" si="118">G68-G69</f>
-        <v>78.044000000000011</v>
+        <v>0</v>
       </c>
       <c r="H71" s="217">
         <f t="shared" si="118"/>
-        <v>124.69974592991596</v>
+        <v>77.587913196559953</v>
       </c>
       <c r="I71" s="217">
         <f t="shared" si="118"/>
-        <v>113.03503252307752</v>
+        <v>79.189857921281316</v>
       </c>
       <c r="J71" s="217">
         <f t="shared" si="118"/>
-        <v>128.94304000056621</v>
+        <v>96.660567242744008</v>
       </c>
       <c r="K71" s="150">
         <f t="shared" si="118"/>
-        <v>119.07100923642585</v>
+        <v>93.041886971004146</v>
       </c>
       <c r="L71" s="217">
         <f t="shared" ref="L71:N71" si="119">L68-L69</f>
-        <v>108.61357363153607</v>
+        <v>88.930859906418476</v>
       </c>
       <c r="M71" s="217">
         <f t="shared" si="119"/>
-        <v>98.095800763963751</v>
+        <v>85.160216065161137</v>
       </c>
       <c r="N71" s="217">
         <f t="shared" si="119"/>
-        <v>87.039447451768922</v>
+        <v>81.542527324679924</v>
       </c>
       <c r="O71" s="150">
         <f t="shared" ref="O71:AA71" si="120">O68-O69</f>
-        <v>76.470027940782444</v>
+        <v>69.661088956544148</v>
       </c>
       <c r="P71" s="250">
         <f t="shared" si="120"/>
-        <v>65.351166167792059</v>
+        <v>57.978172785671859</v>
       </c>
       <c r="Q71" s="250">
         <f t="shared" si="120"/>
-        <v>63.816114733963332</v>
+        <v>55.115350410659346</v>
       </c>
       <c r="R71" s="250">
         <f t="shared" si="120"/>
-        <v>50.554474668943328</v>
+        <v>41.140887976761235</v>
       </c>
       <c r="S71" s="239">
         <f t="shared" si="120"/>
-        <v>48.709908399981316</v>
+        <v>36.20171054730281</v>
       </c>
       <c r="T71" s="250">
         <f t="shared" si="120"/>
-        <v>49.042052924586699</v>
+        <v>36.828990157049986</v>
       </c>
       <c r="U71" s="250">
         <f t="shared" si="120"/>
-        <v>49.382056905164347</v>
+        <v>37.463678233921371</v>
       </c>
       <c r="V71" s="250">
         <f t="shared" si="120"/>
-        <v>49.732030902453403</v>
+        <v>38.110892014683543</v>
       </c>
       <c r="W71" s="251">
         <f t="shared" si="120"/>
-        <v>49.81994743518527</v>
+        <v>38.157160115537408</v>
       </c>
       <c r="X71" s="250">
         <f t="shared" si="120"/>
-        <v>50.035745759852318</v>
+        <v>38.208074215356021</v>
       </c>
       <c r="Y71" s="250">
         <f t="shared" si="120"/>
-        <v>50.135202100631147</v>
+        <v>38.264934161420854</v>
       </c>
       <c r="Z71" s="250">
         <f t="shared" si="120"/>
-        <v>50.241904700030034</v>
+        <v>38.326825369819289</v>
       </c>
       <c r="AA71" s="251">
         <f t="shared" si="120"/>
-        <v>50.302699866473517</v>
+        <v>38.401387580592541</v>
       </c>
       <c r="AB71" s="244"/>
     </row>
@@ -27124,7 +27163,7 @@
         <v>0.63599999999996726</v>
       </c>
       <c r="I4">
-        <v>78.044000000000011</v>
+        <v>0</v>
       </c>
       <c r="J4" s="151">
         <f>'add-ons calculations'!G68</f>
@@ -27157,7 +27196,7 @@
         <v>44286</v>
       </c>
       <c r="B5">
-        <v>12.741909847256096</v>
+        <v>14.491993784139481</v>
       </c>
       <c r="C5">
         <v>84.219373385614446</v>
@@ -27169,16 +27208,16 @@
         <v>22.85696713431571</v>
       </c>
       <c r="F5">
-        <v>12.2521755476821</v>
+        <v>25.381437624588216</v>
       </c>
       <c r="G5">
         <v>1287.8874972143794</v>
       </c>
       <c r="H5">
-        <v>182.11701340348043</v>
+        <v>181.40020106674513</v>
       </c>
       <c r="I5">
-        <v>124.69974592991596</v>
+        <v>77.587913196559953</v>
       </c>
       <c r="K5" s="102">
         <f>main!Q$39/1000</f>
@@ -27209,7 +27248,7 @@
         <v>44377</v>
       </c>
       <c r="B6">
-        <v>6.808735559869092</v>
+        <v>10.308903433636999</v>
       </c>
       <c r="C6">
         <v>93.400002499931929</v>
@@ -27221,16 +27260,16 @@
         <v>23.220425866659994</v>
       </c>
       <c r="F6">
-        <v>34.566184893034006</v>
+        <v>60.824709046836006</v>
       </c>
       <c r="G6">
         <v>251.22365666746987</v>
       </c>
       <c r="H6">
-        <v>179.90531031824844</v>
+        <v>178.52885638089663</v>
       </c>
       <c r="I6">
-        <v>113.03503252307752</v>
+        <v>79.189857921281316</v>
       </c>
       <c r="K6" s="349">
         <f>main!R$39/1000</f>
@@ -27260,7 +27299,7 @@
         <v>44469</v>
       </c>
       <c r="B7">
-        <v>0.87556127248308258</v>
+        <v>6.1258130831341759</v>
       </c>
       <c r="C7">
         <v>115.95460699016468</v>
@@ -27272,16 +27311,16 @@
         <v>23.60890530883951</v>
       </c>
       <c r="F7">
-        <v>52.095519713303929</v>
+        <v>91.483305944011818</v>
       </c>
       <c r="G7">
         <v>199.35773501319068</v>
       </c>
       <c r="H7">
-        <v>-472.48307660831472</v>
+        <v>-474.40846011939709</v>
       </c>
       <c r="I7">
-        <v>128.94304000056621</v>
+        <v>96.660567242744008</v>
       </c>
       <c r="K7" s="102">
         <f>main!S$39/1000</f>
@@ -27311,7 +27350,7 @@
         <v>44561</v>
       </c>
       <c r="B8">
-        <v>2.6593233416860755</v>
+        <v>5.5355405576544001</v>
       </c>
       <c r="C8">
         <v>103.88484143277356</v>
@@ -27323,16 +27362,16 @@
         <v>23.869098743135368</v>
       </c>
       <c r="F8">
-        <v>53.437144448461822</v>
+        <v>93.444253570889032</v>
       </c>
       <c r="G8">
         <v>157.47974440731628</v>
       </c>
       <c r="H8">
-        <v>-496.39094591532699</v>
+        <v>-498.7387987375219</v>
       </c>
       <c r="I8">
-        <v>119.07100923642585</v>
+        <v>93.041886971004146</v>
       </c>
       <c r="K8" s="102">
         <f>main!T$39/1000</f>
@@ -27362,7 +27401,7 @@
         <v>44651</v>
       </c>
       <c r="B9">
-        <v>46.000489441959246</v>
+        <v>46.502672063245768</v>
       </c>
       <c r="C9">
         <v>89.845155984467041</v>
@@ -27374,16 +27413,16 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>54.778769183619943</v>
+        <v>95.405201197766473</v>
       </c>
       <c r="G9">
         <v>158.70723906824014</v>
       </c>
       <c r="H9">
-        <v>-544.48328901545699</v>
+        <v>-547.1903606870228</v>
       </c>
       <c r="I9">
-        <v>108.61357363153607</v>
+        <v>88.930859906418476</v>
       </c>
       <c r="K9" s="102">
         <f>main!U$39/1000</f>
@@ -27412,7 +27451,7 @@
         <v>44742</v>
       </c>
       <c r="B10">
-        <v>47.784251511161273</v>
+        <v>45.912399537766049</v>
       </c>
       <c r="C10">
         <v>103.26060688500222</v>
@@ -27424,16 +27463,16 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>56.120393918777381</v>
+        <v>97.366148824643687</v>
       </c>
       <c r="G10">
         <v>158.19073805116454</v>
       </c>
       <c r="H10">
-        <v>-546.8619707544226</v>
+        <v>-549.83002927139501</v>
       </c>
       <c r="I10">
-        <v>98.095800763963751</v>
+        <v>85.160216065161137</v>
       </c>
       <c r="K10" s="102">
         <f>main!V$39/1000</f>
@@ -27462,7 +27501,7 @@
         <v>44834</v>
       </c>
       <c r="B11">
-        <v>47.293983072942012</v>
+        <v>46.066620655509439</v>
       </c>
       <c r="C11">
         <v>115.95522662969725</v>
@@ -27474,16 +27513,16 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>57.462018653935274</v>
+        <v>99.327096451521129</v>
       </c>
       <c r="G11">
         <v>155.25936244187733</v>
       </c>
       <c r="H11">
-        <v>-549.27104215555914</v>
+        <v>-552.4284100259805</v>
       </c>
       <c r="I11">
-        <v>87.039447451768922</v>
+        <v>81.542527324679924</v>
       </c>
       <c r="K11" s="102">
         <f>main!W$39/1000</f>
@@ -27512,7 +27551,7 @@
         <v>44926</v>
       </c>
       <c r="B12">
-        <v>46.808526354685</v>
+        <v>45.567625181294545</v>
       </c>
       <c r="C12">
         <v>127.81127795369989</v>
@@ -27524,16 +27563,16 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>57.630299361401285</v>
+        <v>100.1353376752661</v>
       </c>
       <c r="G12">
         <v>155.33284803552056</v>
       </c>
       <c r="H12">
-        <v>-551.71050321886514</v>
+        <v>-555.01027564865115</v>
       </c>
       <c r="I12">
-        <v>76.470027940782444</v>
+        <v>69.661088956544148</v>
       </c>
       <c r="K12" s="102">
         <f>main!X$39/1000</f>
@@ -27562,7 +27601,7 @@
         <v>45016</v>
       </c>
       <c r="B13">
-        <v>46.323069636427959</v>
+        <v>45.068629707079623</v>
       </c>
       <c r="C13">
         <v>139.46549655406605</v>
@@ -27574,16 +27613,16 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>57.798580068867523</v>
+        <v>100.94357889901084</v>
       </c>
       <c r="G13">
         <v>155.5071465700205</v>
       </c>
       <c r="H13">
-        <v>-554.18587933746358</v>
+        <v>-557.58663622735014</v>
       </c>
       <c r="I13">
-        <v>65.351166167792059</v>
+        <v>57.978172785671859</v>
       </c>
       <c r="K13" s="102">
         <v>44</v>
@@ -27609,7 +27648,7 @@
         <v>45107</v>
       </c>
       <c r="B14">
-        <v>45.837612918170663</v>
+        <v>44.569634232864729</v>
       </c>
       <c r="C14">
         <v>151.75404657157318</v>
@@ -27621,16 +27660,16 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>57.966860776333306</v>
+        <v>101.75182012275604</v>
       </c>
       <c r="G14">
         <v>155.75039098680099</v>
       </c>
       <c r="H14">
-        <v>-556.67230624230604</v>
+        <v>-560.17125437200662</v>
       </c>
       <c r="I14">
-        <v>63.816114733963332</v>
+        <v>55.115350410659346</v>
       </c>
       <c r="K14" s="102">
         <v>0</v>
@@ -27650,7 +27689,7 @@
         <v>45199</v>
       </c>
       <c r="B15">
-        <v>45.352156199913651</v>
+        <v>44.070638758649835</v>
       </c>
       <c r="C15">
         <v>163.98493009661243</v>
@@ -27662,16 +27701,16 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>58.135141483799089</v>
+        <v>102.56006134650079</v>
       </c>
       <c r="G15">
         <v>156.19117934771998</v>
       </c>
       <c r="H15">
-        <v>-559.19464820244013</v>
+        <v>-562.78064521453507</v>
       </c>
       <c r="I15">
-        <v>50.554474668943328</v>
+        <v>41.140887976761235</v>
       </c>
       <c r="K15" s="102">
         <v>0</v>
@@ -27691,7 +27730,7 @@
         <v>45291</v>
       </c>
       <c r="B16">
-        <v>45.863206685777982</v>
+        <v>44.331280287489619</v>
       </c>
       <c r="C16">
         <v>163.83282315320426</v>
@@ -27703,16 +27742,16 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>58.57629936624312</v>
+        <v>103.25397008032428</v>
       </c>
       <c r="G16">
         <v>157.82060816439548</v>
       </c>
       <c r="H16">
-        <v>-561.75290521786678</v>
+        <v>-565.41480875493562</v>
       </c>
       <c r="I16">
-        <v>48.709908399981316</v>
+        <v>36.20171054730281</v>
       </c>
       <c r="K16" s="102">
         <v>0</v>
@@ -27732,7 +27771,7 @@
         <v>45382</v>
       </c>
       <c r="B17">
-        <v>46.374257171642313</v>
+        <v>44.59192181632946</v>
       </c>
       <c r="C17">
         <v>164.02671516459969</v>
@@ -27744,16 +27783,16 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>59.017457248686924</v>
+        <v>103.94787881414754</v>
       </c>
       <c r="G17">
         <v>159.3837158227152</v>
       </c>
       <c r="H17">
-        <v>-564.33878919890185</v>
+        <v>-568.06548742725101</v>
       </c>
       <c r="I17">
-        <v>49.042052924586699</v>
+        <v>36.828990157049986</v>
       </c>
       <c r="K17" s="102">
         <v>0</v>
@@ -27773,7 +27812,7 @@
         <v>45473</v>
       </c>
       <c r="B18">
-        <v>46.885307657506388</v>
+        <v>44.852563345169301</v>
       </c>
       <c r="C18">
         <v>164.53777288456479</v>
@@ -27785,16 +27824,16 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>59.458615131131182</v>
+        <v>104.64178754797103</v>
       </c>
       <c r="G18">
         <v>160.63759358658922</v>
       </c>
       <c r="H18">
-        <v>-566.93019857306047</v>
+        <v>-570.71066105559476</v>
       </c>
       <c r="I18">
-        <v>49.382056905164347</v>
+        <v>37.463678233921371</v>
       </c>
       <c r="K18" s="102">
         <v>0</v>
@@ -27814,7 +27853,7 @@
         <v>45565</v>
       </c>
       <c r="B19">
-        <v>47.396358143370747</v>
+        <v>45.113204874009142</v>
       </c>
       <c r="C19">
         <v>165.5101625442681</v>
@@ -27826,16 +27865,16 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>59.899773013575441</v>
+        <v>105.3356962817943</v>
       </c>
       <c r="G19">
         <v>161.7019229101536</v>
       </c>
       <c r="H19">
-        <v>-569.53542143002278</v>
+        <v>-573.36409224989586</v>
       </c>
       <c r="I19">
-        <v>49.732030902453403</v>
+        <v>38.110892014683543</v>
       </c>
       <c r="K19" s="102">
         <v>0</v>
@@ -27855,7 +27894,7 @@
         <v>45657</v>
       </c>
       <c r="B20">
-        <v>48.043740694823811</v>
+        <v>45.783624344460833</v>
       </c>
       <c r="C20">
         <v>164.8670467250999</v>
@@ -27867,16 +27906,16 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>61.334872894613227</v>
+        <v>107.91303693773443</v>
       </c>
       <c r="G20">
         <v>165.36037422478853</v>
       </c>
       <c r="H20">
-        <v>-572.1544577697897</v>
+        <v>-576.02302848816862</v>
       </c>
       <c r="I20">
-        <v>49.81994743518527</v>
+        <v>38.157160115537408</v>
       </c>
       <c r="K20" s="102">
         <v>0</v>
@@ -27896,7 +27935,7 @@
         <v>45747</v>
       </c>
       <c r="B21">
-        <v>48.691123246276902</v>
+        <v>46.454043814912495</v>
       </c>
       <c r="C21">
         <v>164.1662644134648</v>
@@ -27908,16 +27947,16 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>62.76997277565124</v>
+        <v>110.49037759367457</v>
       </c>
       <c r="G21">
         <v>168.39490836958566</v>
       </c>
       <c r="H21">
-        <v>-574.77901950267824</v>
+        <v>-578.67921220445555</v>
       </c>
       <c r="I21">
-        <v>50.035745759852318</v>
+        <v>38.208074215356021</v>
       </c>
       <c r="K21" s="102">
         <v>0</v>
@@ -27937,7 +27976,7 @@
         <v>45838</v>
       </c>
       <c r="B22">
-        <v>49.338505797730249</v>
+        <v>47.124463285364214</v>
       </c>
       <c r="C22">
         <v>163.69614807169842</v>
@@ -27949,16 +27988,16 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>64.205072656689254</v>
+        <v>113.0677182496147</v>
       </c>
       <c r="G22">
         <v>170.87673605644864</v>
       </c>
       <c r="H22">
-        <v>-577.38976775276296</v>
+        <v>-581.30236565691303</v>
       </c>
       <c r="I22">
-        <v>50.135202100631147</v>
+        <v>38.264934161420854</v>
       </c>
       <c r="K22" s="102">
         <v>0</v>
@@ -27978,7 +28017,7 @@
         <v>45930</v>
       </c>
       <c r="B23">
-        <v>49.985888349183313</v>
+        <v>47.794882755815905</v>
       </c>
       <c r="C23">
         <v>163.48553094603463</v>
@@ -27990,16 +28029,16 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>65.640172537727494</v>
+        <v>115.64505890555483</v>
       </c>
       <c r="G23">
         <v>172.74637807665476</v>
       </c>
       <c r="H23">
-        <v>-580.00327869940838</v>
+        <v>-583.90625145546994</v>
       </c>
       <c r="I23">
-        <v>50.241904700030034</v>
+        <v>38.326825369819289</v>
       </c>
       <c r="K23" s="102">
         <v>0</v>
@@ -28019,7 +28058,7 @@
         <v>46022</v>
       </c>
       <c r="B24">
-        <v>50.659552056809645</v>
+        <v>48.462524678177488</v>
       </c>
       <c r="C24">
         <v>163.17747895249914</v>
@@ -28031,16 +28070,16 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>66.710270104935262</v>
+        <v>117.57287113278448</v>
       </c>
       <c r="G24">
         <v>173.70686178614119</v>
       </c>
       <c r="H24">
-        <v>-582.61678964605301</v>
+        <v>-586.4908696001263</v>
       </c>
       <c r="I24">
-        <v>50.302699866473517</v>
+        <v>38.401387580592541</v>
       </c>
       <c r="K24" s="102">
         <v>0</v>
@@ -31529,7 +31568,7 @@
         <v>0.63599999999996726</v>
       </c>
       <c r="I3" s="259">
-        <v>78.044000000000011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -31555,10 +31594,10 @@
         <v>1201.8936191406992</v>
       </c>
       <c r="H4" s="259">
-        <v>182.11701340348043</v>
+        <v>181.40020106674513</v>
       </c>
       <c r="I4" s="259">
-        <v>124.69974592991596</v>
+        <v>77.587913196559953</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -31584,10 +31623,10 @@
         <v>854.05661636033483</v>
       </c>
       <c r="H5" s="259">
-        <v>179.90531031824844</v>
+        <v>178.52885638089663</v>
       </c>
       <c r="I5" s="259">
-        <v>113.03503252307752</v>
+        <v>79.189857921281316</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -31613,10 +31652,10 @@
         <v>906.03001879956446</v>
       </c>
       <c r="H6" s="259">
-        <v>-472.48307660831472</v>
+        <v>-474.40846011939709</v>
       </c>
       <c r="I6" s="259">
-        <v>128.94304000056621</v>
+        <v>96.660567242744008</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -31642,10 +31681,10 @@
         <v>926.50683572140088</v>
       </c>
       <c r="H7" s="259">
-        <v>-496.39094591532699</v>
+        <v>-498.7387987375219</v>
       </c>
       <c r="I7" s="259">
-        <v>119.07100923642585</v>
+        <v>93.041886971004146</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -31671,10 +31710,10 @@
         <v>935.88801570004148</v>
       </c>
       <c r="H8" s="259">
-        <v>-544.48328901545699</v>
+        <v>-547.1903606870228</v>
       </c>
       <c r="I8" s="259">
-        <v>108.61357363153607</v>
+        <v>88.930859906418476</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -31700,10 +31739,10 @@
         <v>935.60252133929384</v>
       </c>
       <c r="H9" s="259">
-        <v>-546.8619707544226</v>
+        <v>-549.83002927139501</v>
       </c>
       <c r="I9" s="259">
-        <v>98.095800763963751</v>
+        <v>85.160216065161137</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -31729,10 +31768,10 @@
         <v>921.93178379942924</v>
       </c>
       <c r="H10" s="259">
-        <v>-549.27104215555914</v>
+        <v>-552.4284100259805</v>
       </c>
       <c r="I10" s="259">
-        <v>87.039447451768922</v>
+        <v>81.542527324679924</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -31758,10 +31797,10 @@
         <v>922.96679357866992</v>
       </c>
       <c r="H11" s="259">
-        <v>-551.71050321886514</v>
+        <v>-555.01027564865115</v>
       </c>
       <c r="I11" s="259">
-        <v>76.470027940782444</v>
+        <v>69.661088956544148</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -31787,10 +31826,10 @@
         <v>924.56059251132388</v>
       </c>
       <c r="H12" s="259">
-        <v>-554.18587933746358</v>
+        <v>-557.58663622735014</v>
       </c>
       <c r="I12" s="259">
-        <v>65.351166167792059</v>
+        <v>57.978172785671859</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -31816,10 +31855,10 @@
         <v>926.53654685838478</v>
       </c>
       <c r="H13" s="259">
-        <v>-556.67230624230604</v>
+        <v>-560.17125437200662</v>
       </c>
       <c r="I13" s="259">
-        <v>63.816114733963332</v>
+        <v>55.115350410659346</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -31845,10 +31884,10 @@
         <v>929.6074540197169</v>
       </c>
       <c r="H14" s="259">
-        <v>-559.19464820244013</v>
+        <v>-562.78064521453507</v>
       </c>
       <c r="I14" s="259">
-        <v>50.554474668943328</v>
+        <v>41.140887976761235</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -31874,10 +31913,10 @@
         <v>939.00391731648051</v>
       </c>
       <c r="H15" s="259">
-        <v>-561.75290521786678</v>
+        <v>-565.41480875493562</v>
       </c>
       <c r="I15" s="259">
-        <v>48.709908399981316</v>
+        <v>36.20171054730281</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -31903,10 +31942,10 @@
         <v>948.03277360151947</v>
       </c>
       <c r="H16" s="259">
-        <v>-564.33878919890185</v>
+        <v>-568.06548742725101</v>
       </c>
       <c r="I16" s="259">
-        <v>49.042052924586699</v>
+        <v>36.828990157049986</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -31932,10 +31971,10 @@
         <v>955.34762065860946</v>
       </c>
       <c r="H17" s="259">
-        <v>-566.93019857306047</v>
+        <v>-570.71066105559476</v>
       </c>
       <c r="I17" s="259">
-        <v>49.382056905164347</v>
+        <v>37.463678233921371</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -31961,10 +32000,10 @@
         <v>961.61183263262797</v>
       </c>
       <c r="H18" s="259">
-        <v>-569.53542143002278</v>
+        <v>-573.36409224989586</v>
       </c>
       <c r="I18" s="259">
-        <v>49.732030902453403</v>
+        <v>38.110892014683543</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -31990,10 +32029,10 @@
         <v>983.80559967852105</v>
       </c>
       <c r="H19" s="259">
-        <v>-572.1544577697897</v>
+        <v>-576.02302848816862</v>
       </c>
       <c r="I19" s="259">
-        <v>49.81994743518527</v>
+        <v>38.157160115537408</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -32019,10 +32058,10 @@
         <v>1002.5410989249847</v>
       </c>
       <c r="H20" s="259">
-        <v>-574.77901950267824</v>
+        <v>-578.67921220445555</v>
       </c>
       <c r="I20" s="259">
-        <v>50.035745759852318</v>
+        <v>38.208074215356021</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -32048,10 +32087,10 @@
         <v>1018.2130393556045</v>
       </c>
       <c r="H21" s="259">
-        <v>-577.38976775276296</v>
+        <v>-581.30236565691303</v>
       </c>
       <c r="I21" s="259">
-        <v>50.135202100631147</v>
+        <v>38.264934161420854</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -32077,10 +32116,10 @@
         <v>1030.4917377332347</v>
       </c>
       <c r="H22" s="259">
-        <v>-580.00327869940838</v>
+        <v>-583.90625145546994</v>
       </c>
       <c r="I22" s="259">
-        <v>50.241904700030034</v>
+        <v>38.326825369819289</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -32106,10 +32145,10 @@
         <v>1037.1068216073324</v>
       </c>
       <c r="H23" s="259">
-        <v>-582.61678964605301</v>
+        <v>-586.4908696001263</v>
       </c>
       <c r="I23" s="259">
-        <v>50.302699866473517</v>
+        <v>38.401387580592541</v>
       </c>
     </row>
   </sheetData>
